--- a/Disaster point information.xlsx
+++ b/Disaster point information.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kk\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1701AA-F190-4DA7-8845-2DB8F3FCCDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A8D658-79A4-47DB-B123-DABFE3C8AF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3A9CE7C8-678C-4FC0-82C2-674CBCA6F8B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8841" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8834" uniqueCount="1135">
   <si>
     <t>FID</t>
   </si>
@@ -3440,50 +3439,13 @@
   </si>
   <si>
     <t>四川省汉源县永利乡杨树村1、2、3社</t>
-  </si>
-  <si>
-    <t>Rowid</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>COUNT</t>
-  </si>
-  <si>
-    <t>灾害点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>面积比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灾害比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>频率比</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.000%"/>
-    <numFmt numFmtId="183" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3517,27 +3479,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -44615,199 +44567,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48FAF1E-AA24-42BB-BD8E-9AF414B03882}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5034</v>
-      </c>
-      <c r="D2">
-        <v>228</v>
-      </c>
-      <c r="E2" s="1">
-        <f>C2/$C$7</f>
-        <v>0.14730927925555262</v>
-      </c>
-      <c r="F2" s="1">
-        <f>D2/$D$7</f>
-        <v>0.46530612244897956</v>
-      </c>
-      <c r="G2" s="2">
-        <f>F2/E2</f>
-        <v>3.1587020505460823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>8003</v>
-      </c>
-      <c r="D3">
-        <v>205</v>
-      </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E6" si="0">C3/$C$7</f>
-        <v>0.23419073537588153</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F6" si="1">D3/$D$7</f>
-        <v>0.41836734693877553</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G6" si="2">F3/E3</f>
-        <v>1.7864385039283739</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>9377</v>
-      </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>0.27439791648377376</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="1"/>
-        <v>9.7959183673469383E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="2"/>
-        <v>0.35699682027017904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>7766</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.22725543557779534</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6326530612244899E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="2"/>
-        <v>7.1842200696915395E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>3993</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11684663330699675</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0408163265306124E-3</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="2"/>
-        <v>1.7465769177693619E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <f>SUM(C2:C6)</f>
-        <v>34173</v>
-      </c>
-      <c r="D7">
-        <f>SUM(D2:D6)</f>
-        <v>490</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:F7" si="3">SUM(E2:E6)</f>
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0.99999999999999989</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Disaster point information.xlsx
+++ b/Disaster point information.xlsx
@@ -42,1462 +42,1462 @@
     <t>Shape *</t>
   </si>
   <si>
-    <t>FID_雅安</t>
-  </si>
-  <si>
-    <t>灾害体</t>
-  </si>
-  <si>
-    <t>灾害_1</t>
-  </si>
-  <si>
-    <t>灾害_12</t>
-  </si>
-  <si>
-    <t>灾害__13</t>
-  </si>
-  <si>
-    <t>野外编</t>
-  </si>
-  <si>
-    <t>室内编</t>
-  </si>
-  <si>
-    <t>省</t>
-  </si>
-  <si>
-    <t>地理位</t>
-  </si>
-  <si>
-    <t>坡顶最</t>
-  </si>
-  <si>
-    <t>坡底最</t>
-  </si>
-  <si>
-    <t>治理情</t>
-  </si>
-  <si>
-    <t>地下水</t>
-  </si>
-  <si>
-    <t>构造部</t>
-  </si>
-  <si>
-    <t>地震烈</t>
-  </si>
-  <si>
-    <t>目前稳</t>
-  </si>
-  <si>
-    <t>今后变</t>
-  </si>
-  <si>
-    <t>威胁人</t>
-  </si>
-  <si>
-    <t>威胁财</t>
-  </si>
-  <si>
-    <t>灾害等</t>
-  </si>
-  <si>
-    <t>险情等</t>
-  </si>
-  <si>
-    <t>防治建</t>
-  </si>
-  <si>
-    <t>隐患点</t>
-  </si>
-  <si>
-    <t>监测建</t>
-  </si>
-  <si>
-    <t>毁坏房</t>
-  </si>
-  <si>
-    <t>点</t>
-  </si>
-  <si>
-    <t>崩塌</t>
-  </si>
-  <si>
-    <t>付家岩崩塌</t>
-  </si>
-  <si>
-    <t>四川省</t>
+    <t>FID_Ya'an</t>
+  </si>
+  <si>
+    <t>Disaster body</t>
+  </si>
+  <si>
+    <t>Disaster 1</t>
+  </si>
+  <si>
+    <t>Disaster 12</t>
+  </si>
+  <si>
+    <t>Disaster __13</t>
+  </si>
+  <si>
+    <t>Field Compilation</t>
+  </si>
+  <si>
+    <t>Indoor Compilation</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>geographical location</t>
+  </si>
+  <si>
+    <t>The top of the slope is the most</t>
+  </si>
+  <si>
+    <t>Bottom of the slope</t>
+  </si>
+  <si>
+    <t>Governance situation</t>
+  </si>
+  <si>
+    <t>groundwater</t>
+  </si>
+  <si>
+    <t>Construction Department</t>
+  </si>
+  <si>
+    <t>Strong earthquake</t>
+  </si>
+  <si>
+    <t>Currently stable</t>
+  </si>
+  <si>
+    <t>Change in the future</t>
+  </si>
+  <si>
+    <t>Threatening people</t>
+  </si>
+  <si>
+    <t>Threatening Wealth</t>
+  </si>
+  <si>
+    <t>Disasters, etc</t>
+  </si>
+  <si>
+    <t>Dangerous situations, etc</t>
+  </si>
+  <si>
+    <t>Prevention and control of construction</t>
+  </si>
+  <si>
+    <t>hidden danger spot</t>
+  </si>
+  <si>
+    <t>Monitoring construction</t>
+  </si>
+  <si>
+    <t>Damaged house</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>Fujiayan collapse</t>
+  </si>
+  <si>
+    <t>Sichuan Province</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>四川省汉源县鸟似河乡万里村1社</t>
-  </si>
-  <si>
-    <t>裂隙水</t>
-  </si>
-  <si>
-    <t>王帽山断裂带</t>
+    <t>Wanli Village 1, Niao Ruhe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fissure water</t>
+  </si>
+  <si>
+    <t>Wangmaoshan Fault Zone</t>
   </si>
   <si>
     <t>Ⅷ</t>
   </si>
   <si>
-    <t>较差</t>
-  </si>
-  <si>
-    <t>小型</t>
-  </si>
-  <si>
-    <t>大型</t>
-  </si>
-  <si>
-    <t>群测群防</t>
-  </si>
-  <si>
-    <t>定期目视检查</t>
-  </si>
-  <si>
-    <t>泥石流</t>
-  </si>
-  <si>
-    <t>落家沟泥石流</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>large-scale</t>
+  </si>
+  <si>
+    <t>Group testing and prevention</t>
+  </si>
+  <si>
+    <t>Regular visual inspection</t>
+  </si>
+  <si>
+    <t>debris flow</t>
+  </si>
+  <si>
+    <t>Luojiagou debris flow</t>
   </si>
   <si>
     <t>N018</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县河南乡河南村</t>
-  </si>
-  <si>
-    <t>冷家沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县富林乡广源村1社</t>
+    <t>Henan Village, Henan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Lengjiagou debris flow</t>
+  </si>
+  <si>
+    <t>Group 1, Guangyuan Village, Fulin Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>Ⅶ</t>
   </si>
   <si>
-    <t>群测群防$工程治理</t>
-  </si>
-  <si>
-    <t>雨情</t>
-  </si>
-  <si>
-    <t>洛家沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县河南乡河南村7、8社</t>
-  </si>
-  <si>
-    <t>中型</t>
-  </si>
-  <si>
-    <t>滑坡</t>
-  </si>
-  <si>
-    <t>龙马铺滑坡</t>
+    <t>Group testing and prevention engineering governance</t>
+  </si>
+  <si>
+    <t>rainfall situation</t>
+  </si>
+  <si>
+    <t>Luojiagou debris flow</t>
+  </si>
+  <si>
+    <t>Henan Village 7 and 8, Henan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>medium-sized</t>
+  </si>
+  <si>
+    <t>landslide</t>
+  </si>
+  <si>
+    <t>Longmapu landslide</t>
   </si>
   <si>
     <t>H108</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县河南乡植树村</t>
-  </si>
-  <si>
-    <t>罗马铺滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县河南乡柏树村1社</t>
-  </si>
-  <si>
-    <t>孔隙水</t>
-  </si>
-  <si>
-    <t>粉质粘土</t>
+    <t>Tree Planting Village, Henan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Roman landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Baishu Village, Henan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>pore water</t>
+  </si>
+  <si>
+    <t>silty clay</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>青草沟滑坡</t>
+    <t>Qingcaogou landslide</t>
   </si>
   <si>
     <t>H112</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县河南乡盐井村</t>
-  </si>
-  <si>
-    <t>青草坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县河南乡沿井村1社</t>
-  </si>
-  <si>
-    <t>孔隙水$潜水</t>
-  </si>
-  <si>
-    <t>但斜构造</t>
-  </si>
-  <si>
-    <t>大地头滑坡</t>
+    <t>Yanjing Village, Henan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qingcaoping landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Yanjing Village, Henan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Pore water $diving</t>
+  </si>
+  <si>
+    <t>But oblique structure</t>
+  </si>
+  <si>
+    <t>Daditou landslide</t>
   </si>
   <si>
     <t>H111</t>
   </si>
   <si>
-    <t>阳洞坎危岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县片马乡富银村2、4、5村</t>
-  </si>
-  <si>
-    <t>差</t>
-  </si>
-  <si>
-    <t>洋汉坝危岩</t>
+    <t>Yangdongkan dangerous rock</t>
+  </si>
+  <si>
+    <t>Villages 2, 4, and 5 of Fuyin Village, Pianma Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>Yanghanba Dangerous Rock</t>
   </si>
   <si>
     <t>B016</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县片马乡富银村</t>
-  </si>
-  <si>
-    <t>四川省汉源县河南乡沿井村2社</t>
-  </si>
-  <si>
-    <t>香树湾滑坡</t>
+    <t>Fuyin Village, Pianma Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 2, Yanjing Village, Henan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xiangshuwan landslide</t>
   </si>
   <si>
     <t>H110</t>
   </si>
   <si>
-    <t>四川省汉源县河南乡盐井村3社</t>
-  </si>
-  <si>
-    <t>砂岩</t>
-  </si>
-  <si>
-    <t>斗骡子滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县片马乡万坪村8社</t>
-  </si>
-  <si>
-    <t>单斜</t>
-  </si>
-  <si>
-    <t>群测群防$搬迁避让</t>
-  </si>
-  <si>
-    <t>万坪村八组滑坡</t>
+    <t>Yanjing Village, Henan Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>sandstone</t>
+  </si>
+  <si>
+    <t>Douluozi landslide</t>
+  </si>
+  <si>
+    <t>Group 8, Wanping Village, Pianma Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>monoclinic</t>
+  </si>
+  <si>
+    <t>Group testing, group prevention, relocation avoidance</t>
+  </si>
+  <si>
+    <t>Landslide in Group 8 of Wanping Village</t>
   </si>
   <si>
     <t>H106</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县片马乡万坪村</t>
-  </si>
-  <si>
-    <t>血子槽滑坡</t>
+    <t>Wanping Village, Pianma Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xuezicao landslide</t>
   </si>
   <si>
     <t>H072</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县顺河乡党托村</t>
-  </si>
-  <si>
-    <t>耳子槽滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县顺河乡觉托村1社</t>
-  </si>
-  <si>
-    <t>块碎石土</t>
-  </si>
-  <si>
-    <t>庙儿岗滑坡</t>
+    <t>Dangtuo Village, Shunhe Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Erzicao landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Juetuo Village, Shunhe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Crushed stone soil</t>
+  </si>
+  <si>
+    <t>Miaoergang landslide</t>
   </si>
   <si>
     <t>H105</t>
   </si>
   <si>
-    <t>四川省汉源县片马乡言银村8社</t>
+    <t>Yanyin Village, Group 8, Pianma Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>Ⅳ</t>
   </si>
   <si>
-    <t>搬迁避让</t>
-  </si>
-  <si>
-    <t>一碗水滑坡</t>
+    <t>relocation and avoidance</t>
+  </si>
+  <si>
+    <t>A bowl of water landslide</t>
   </si>
   <si>
     <t>H097</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县乌斯河镇苏占村</t>
-  </si>
-  <si>
-    <t>观音水滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县河南乡沿井村4社</t>
-  </si>
-  <si>
-    <t>碎石土</t>
-  </si>
-  <si>
-    <t>观音水滑坡群</t>
+    <t>Suzhan Village, Wushe Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Guanyin Water Landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Yanjing Village, Henan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>gravels </t>
+  </si>
+  <si>
+    <t>Guanyin Water Landslide Group</t>
   </si>
   <si>
     <t>H109</t>
   </si>
   <si>
-    <t>雷家嘴滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县乌斯河乡沙觉村5、7社</t>
-  </si>
-  <si>
-    <t>潜水</t>
-  </si>
-  <si>
-    <t>粉质粘土,灰岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县乌斯河乡苏古村8社</t>
-  </si>
-  <si>
-    <t>王家山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县小堡乡解支村8社</t>
-  </si>
-  <si>
-    <t>专业监测</t>
-  </si>
-  <si>
-    <t>新龙村4，5组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县晒经乡新龙村4、5社</t>
-  </si>
-  <si>
-    <t>单斜构造</t>
+    <t>Leijiazui landslide</t>
+  </si>
+  <si>
+    <t>Groups 5-7, Shajue Village, Wushe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>diving</t>
+  </si>
+  <si>
+    <t>Powdery clay, limestone</t>
+  </si>
+  <si>
+    <t>Group 8, Sugu Village, Wushe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wangjiashan landslide</t>
+  </si>
+  <si>
+    <t>Group 8, Jiezhi Village, Xiaobao Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Professional monitoring</t>
+  </si>
+  <si>
+    <t>Landslides in Groups 4 and 5 of Xinlong Village</t>
+  </si>
+  <si>
+    <t>Groups 4-5, Xinlong Village, Shaijing Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Monoclinic structure</t>
   </si>
   <si>
     <t>H119</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县小堡乡解放村</t>
-  </si>
-  <si>
-    <t>王家坪滑坡</t>
+    <t>Jiefang Village, Xiaobao Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wangjiaping landslide</t>
   </si>
   <si>
     <t>H115</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县晒经乡晒经村</t>
-  </si>
-  <si>
-    <t>石窑头滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡料林村4、9、10社</t>
-  </si>
-  <si>
-    <t>上层滞水</t>
-  </si>
-  <si>
-    <t>糠糠头滑坡</t>
+    <t>Shaijing Village, Shaijing Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shiyaotou Landslide 2</t>
+  </si>
+  <si>
+    <t>Communities 4, 9, and 10, Liaolin Village, Liaolin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Upper stagnant water</t>
+  </si>
+  <si>
+    <t>Kuangfutou landslide</t>
   </si>
   <si>
     <t>H113</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县晒经乡新石村</t>
-  </si>
-  <si>
-    <t>石窑头滑坡</t>
+    <t>Xinshi Village, Shaijing Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shiyaotou landslide</t>
   </si>
   <si>
     <t>H122</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县料林乡料林村</t>
-  </si>
-  <si>
-    <t>瞿家田滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县晒经乡新龙村3社</t>
-  </si>
-  <si>
-    <t>孔隙水$上层滞水</t>
-  </si>
-  <si>
-    <t>罗家湾——麦坪逆断层</t>
-  </si>
-  <si>
-    <t>瞿家田滑坡群(昔格达地层)4个</t>
+    <t>Liulin Village, Liulin Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qujiatian landslide</t>
+  </si>
+  <si>
+    <t>Xinlong Village Community 3, Shaijing Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Pore water $Upper stagnant water</t>
+  </si>
+  <si>
+    <t>Luojiawan Maiping reverse fault</t>
+  </si>
+  <si>
+    <t>Qujiatian landslide group (Xigeda Formation) consists of four</t>
   </si>
   <si>
     <t>H116</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县晒经乡新龙村</t>
-  </si>
-  <si>
-    <t>白周房滑坡</t>
+    <t>Xinlong Village, Shaijing Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baizhoufang landslide</t>
   </si>
   <si>
     <t>H071</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县顺河乡板羊村</t>
-  </si>
-  <si>
-    <t>石窖头滑坡1</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡中心村4社</t>
-  </si>
-  <si>
-    <t>小梁山滑坡</t>
+    <t>Banyang Village, Shunhe Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shijiaotou Landslide 1</t>
+  </si>
+  <si>
+    <t>Community 4, Zhongxin Village, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xiaoliangshan landslide</t>
   </si>
   <si>
     <t>H114</t>
   </si>
   <si>
-    <t>白碉房滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县顺河乡板羊村9社</t>
-  </si>
-  <si>
-    <t>田杯子滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县小堡乡铁口村7、8社</t>
-  </si>
-  <si>
-    <t>碎块石土</t>
-  </si>
-  <si>
-    <t>黄家堡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县乌斯河乡大堡村4社</t>
-  </si>
-  <si>
-    <t>朱家园子滑坡</t>
-  </si>
-  <si>
-    <t>灰岩</t>
-  </si>
-  <si>
-    <t>水井沟滑坡</t>
+    <t>Baidiaofang landslide</t>
+  </si>
+  <si>
+    <t>Group 9, Banyang Village, Shunhe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Tianbei cup landslide</t>
+  </si>
+  <si>
+    <t>Communities 7 and 8, Tiekou Village, Xiaobao Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fragmented stone and soil</t>
+  </si>
+  <si>
+    <t>Huangjiabao landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Dabao Village, Wushe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhujiayuanzi landslide</t>
+  </si>
+  <si>
+    <t>limestone</t>
+  </si>
+  <si>
+    <t>Shuijinggou landslide</t>
   </si>
   <si>
     <t>H118</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县小堡乡铁口村</t>
-  </si>
-  <si>
-    <t>四川省汉源县晒经乡新龙村1社</t>
-  </si>
-  <si>
-    <t>专业监测$搬迁避让</t>
-  </si>
-  <si>
-    <t>万里4组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县乌斯河乡万里村4社</t>
-  </si>
-  <si>
-    <t>碎石土,灰岩</t>
-  </si>
-  <si>
-    <t>宋家地滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡大维村1社</t>
-  </si>
-  <si>
-    <t>安装简易监测设施</t>
-  </si>
-  <si>
-    <t>鲁布沟崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县鸟似河乡大堡村4社</t>
-  </si>
-  <si>
-    <t>大坪子滑坡</t>
+    <t>Tiekou Village, Xiaobao Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xinlong Village Community 1, Shaijing Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Professional monitoring $Relocation avoidance</t>
+  </si>
+  <si>
+    <t>Wanli Group 4 Landslides</t>
+  </si>
+  <si>
+    <t>Group 4, Wanli Village, Wushe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Gravel soil, limestone</t>
+  </si>
+  <si>
+    <t>Songjiadi landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Dawei Village, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Install simple monitoring facilities</t>
+  </si>
+  <si>
+    <t>Lubugou collapse</t>
+  </si>
+  <si>
+    <t>Group 4, Dabao Village, Niaoxihe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dapingzi landslide</t>
   </si>
   <si>
     <t>H123</t>
   </si>
   <si>
-    <t>大渡头滑坡</t>
+    <t>Dadutou landslide</t>
   </si>
   <si>
     <t>H121</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县料林乡新塘村</t>
-  </si>
-  <si>
-    <t>大湾头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡新塘村3社</t>
-  </si>
-  <si>
-    <t>306省道滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县万工乡万工村9社</t>
-  </si>
-  <si>
-    <t>何家树林滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县乌斯河乡大堡村2、3社</t>
+    <t>Xintang Village, Liaolin Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dawantou landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Xintang Village, Liaolin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on Provincial Highway 306</t>
+  </si>
+  <si>
+    <t>Group 9, Wangong Village, Wangong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Hejiashulin landslide</t>
+  </si>
+  <si>
+    <t>Communities 2 and 3, Dabao Village, Wushe Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H100</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县乌斯河镇沙党村</t>
-  </si>
-  <si>
-    <t>彭家湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县乌斯河乡大堡村3社</t>
-  </si>
-  <si>
-    <t>碎石土,粉质粘土</t>
+    <t>Shadang Village, Wushe Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Pengjiawan landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Dabao Village, Wushe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Gravel soil, powdery clay</t>
   </si>
   <si>
     <t>H175</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县桂贤乡大维村</t>
-  </si>
-  <si>
-    <t>坟岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡料林村2社</t>
-  </si>
-  <si>
-    <t>白土山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县小堡乡铁口村1组</t>
-  </si>
-  <si>
-    <t>伍家坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡松树村4社</t>
-  </si>
-  <si>
-    <t>万里村村南4组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县顺河乡万里村4社</t>
+    <t>Dawei Village, Guixian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fengang landslide</t>
+  </si>
+  <si>
+    <t>Liulin Village 2, Liulin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baitushan landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Tiekou Village, Xiaobao Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wujiaping landslide</t>
+  </si>
+  <si>
+    <t>Society 4, Songshu Village, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wanli Village South Group 4 Landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Wanli Village, Shunhe Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H117</t>
   </si>
   <si>
-    <t>任家坪滑坡</t>
+    <t>Renjiaping landslide</t>
   </si>
   <si>
     <t>H176</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县桂贤乡松林村</t>
+    <t>Songlin Village, Guixian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
   </si>
   <si>
     <t>H096</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县乌斯河镇大堡村</t>
-  </si>
-  <si>
-    <t>万里四组中下环滑坡</t>
+    <t>Dabao Village, Wushe Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wanli Group 4 Middle and Lower Ring Landslide</t>
   </si>
   <si>
     <t>H098</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县乌斯河镇万里村</t>
-  </si>
-  <si>
-    <t>安家岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡料林村1、2社</t>
+    <t>Wanli Village, Wushe Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Anjiagang landslide</t>
+  </si>
+  <si>
+    <t>1 and 2 communities of Liaolin Village, Liaolin Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H124</t>
   </si>
   <si>
-    <t>矮子庙滑坡</t>
+    <t>Dwarf Temple landslide</t>
   </si>
   <si>
     <t>H060</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县晒经乡李子坪村</t>
-  </si>
-  <si>
-    <t>清水塘滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大树乡新村3组</t>
-  </si>
-  <si>
-    <t>浔新包崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡大林村6社</t>
-  </si>
-  <si>
-    <t>王帽山断裂带附近</t>
-  </si>
-  <si>
-    <t>四川省汉源县晒经乡李子村5社</t>
-  </si>
-  <si>
-    <t>湾头滑坡</t>
+    <t>Liziping Village, Shaijing Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qingshuitang landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Xincun, Dashu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xunxin Package Collapse</t>
+  </si>
+  <si>
+    <t>Group 6, Dalin Village, Liaolin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Near Wangmaoshan Fault Zone</t>
+  </si>
+  <si>
+    <t>Group 5, Lizi Village, Shaijing Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wantou landslide</t>
   </si>
   <si>
     <t>H193</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县晒经乡李子村</t>
-  </si>
-  <si>
-    <t>含粉质粘土碎石土</t>
-  </si>
-  <si>
-    <t>脚石坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县顺河乡万里村2社</t>
-  </si>
-  <si>
-    <t>学堂湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县晒经乡李子村1社</t>
-  </si>
-  <si>
-    <t>付家岩危岩带</t>
+    <t>Lizi Village, Shaijing Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Containing silty clay, crushed stone soil</t>
+  </si>
+  <si>
+    <t>Jiaoshiping landslide</t>
+  </si>
+  <si>
+    <t>Wanli Village 2, Shunhe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xuetangwan Landslide</t>
+  </si>
+  <si>
+    <t>Lizi Village Community 1, Shaijing Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fujiayan Dangerous Rock Belt</t>
   </si>
   <si>
     <t>B011</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县乌斯河乡万里村</t>
-  </si>
-  <si>
-    <t>任家大地滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡料林村1社</t>
-  </si>
-  <si>
-    <t>任家大地头滑坡</t>
+    <t>Wanli Village, Wushe Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Renjia Landslide</t>
+  </si>
+  <si>
+    <t>Liulin Village, Liulin Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Renjia Daditou Landslide</t>
   </si>
   <si>
     <t>H125</t>
   </si>
   <si>
-    <t>马落顶滑坡</t>
+    <t>Malouding landslide</t>
   </si>
   <si>
     <t>H131</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县料林乡马落村</t>
-  </si>
-  <si>
-    <t>清水塘泥滑坡</t>
+    <t>Maluo Village, Liaolin Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qingshuitang Mud Landslide</t>
   </si>
   <si>
     <t>H126</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大树乡新村</t>
-  </si>
-  <si>
-    <t>大河沟泥石流</t>
+    <t>Xincun, Dashu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dahuigou debris flow</t>
   </si>
   <si>
     <t>N019</t>
   </si>
   <si>
-    <t>大跨山滑坡</t>
+    <t>Daqiao Mountain Landslide</t>
   </si>
   <si>
     <t>H177</t>
   </si>
   <si>
-    <t>王家包滑坡</t>
+    <t>Wangjiabao landslide</t>
   </si>
   <si>
     <t>H043</t>
   </si>
   <si>
-    <t>岳家岗下跨山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡松树村37社</t>
-  </si>
-  <si>
-    <t>粉质粘土,砂岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县大树乡新村1社</t>
-  </si>
-  <si>
-    <t>九路田滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡松树村2社</t>
-  </si>
-  <si>
-    <t>粉质粘土砂岩</t>
+    <t>Yuejiagang Mountain Crossing Landslide</t>
+  </si>
+  <si>
+    <t>Group 37, Songshu Village, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fine clay, sandstone</t>
+  </si>
+  <si>
+    <t>Xincun Community 1, Dashu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jiulutian landslide</t>
+  </si>
+  <si>
+    <t>Society 2, Songshu Village, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Silty clay sandstone</t>
   </si>
   <si>
     <t>H099</t>
   </si>
   <si>
-    <t>李家坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡马落村3社</t>
+    <t>Lijiaping landslide</t>
+  </si>
+  <si>
+    <t>Community 3, Maluo Village, Liaolin Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H132</t>
   </si>
   <si>
-    <t>李家岗滑坡</t>
+    <t>Lijiagang landslide</t>
   </si>
   <si>
     <t>H045</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县桂贤乡中心村</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡中兴村2社</t>
-  </si>
-  <si>
-    <t>大坪口滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡松林村1社</t>
-  </si>
-  <si>
-    <t>山羊坪滑坡</t>
-  </si>
-  <si>
-    <t>太坪口滑坡</t>
+    <t>Central Village, Guixian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhongxing Village Community 2, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dapingkou landslide</t>
+  </si>
+  <si>
+    <t>Songlin Village, Guixian Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Goat Ping landslide</t>
+  </si>
+  <si>
+    <t>Taipingkou landslide</t>
   </si>
   <si>
     <t>H044</t>
   </si>
   <si>
-    <t>苹果园滑坡</t>
+    <t>Apple orchard landslide</t>
   </si>
   <si>
     <t>H190</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县桂贤乡桂荣村</t>
-  </si>
-  <si>
-    <t>苹果林滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡桂荣村2社</t>
-  </si>
-  <si>
-    <t>桃木溪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县乌斯河乡觉托村3社</t>
-  </si>
-  <si>
-    <t>寨子沟泥石流</t>
-  </si>
-  <si>
-    <t>桂贤红岩子滑坡</t>
-  </si>
-  <si>
-    <t>四川省雅安市汉源县桂贤乡</t>
-  </si>
-  <si>
-    <t>大穷函危岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县大树乡新沟村1社</t>
-  </si>
-  <si>
-    <t>堰坎上滑坡1</t>
-  </si>
-  <si>
-    <t>堰坎脚滑坡</t>
+    <t>Guirong Village, Guixian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Apple Grove Landslide 2</t>
+  </si>
+  <si>
+    <t>Guirong Village Community 2, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Taomuxi landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Juetuo Village, Wushe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhaizigou debris flow</t>
+  </si>
+  <si>
+    <t>Guixian Hongyanzi landslide</t>
+  </si>
+  <si>
+    <t>Guixian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>The Great Poverty Letter and Dangerous Rock</t>
+  </si>
+  <si>
+    <t>Group 1, Xingou Village, Dashu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on Weir 1</t>
+  </si>
+  <si>
+    <t>Yankanjiao landslide</t>
   </si>
   <si>
     <t>H133</t>
   </si>
   <si>
-    <t>牛莫路滑坡</t>
+    <t>Niumo Road landslide</t>
   </si>
   <si>
     <t>H093</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县皇木镇三合村</t>
-  </si>
-  <si>
-    <t>学堂滑坡</t>
+    <t>Sanhe Village, Huangmu Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>School Landslide</t>
   </si>
   <si>
     <t>H191</t>
   </si>
   <si>
-    <t>独木溪滑坡</t>
+    <t>Dumuxi landslide</t>
   </si>
   <si>
     <t>H095</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县乌斯河镇贾托村</t>
-  </si>
-  <si>
-    <t>燕子窝滑坡</t>
+    <t>Jiatuo Village, Wushe Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Yanziwo landslide</t>
   </si>
   <si>
     <t>H130</t>
   </si>
   <si>
-    <t>藤子坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡银政村3社</t>
-  </si>
-  <si>
-    <t>燕子湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县料林乡马落村1社</t>
-  </si>
-  <si>
-    <t>赵洪庙沟泥石流</t>
+    <t>Tengzipo landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Yinzheng Village, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Yanziwan landslide</t>
+  </si>
+  <si>
+    <t>Community 1, Maluo Village, Liaolin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhaohongmiao Gully debris flow</t>
   </si>
   <si>
     <t>N006</t>
   </si>
   <si>
-    <t>腾土坡滑坡</t>
+    <t>Tengtupo landslide</t>
   </si>
   <si>
     <t>H047</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县桂贤乡银政村</t>
-  </si>
-  <si>
-    <t>大弯头滑坡</t>
+    <t>Yinzheng Village, Guixian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Big bend landslide</t>
   </si>
   <si>
     <t>H092</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县皇木镇岩口村</t>
-  </si>
-  <si>
-    <t>水井坎滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县黄木乡三合村1社</t>
-  </si>
-  <si>
-    <t>铺子沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县皇木乡石沟村4社</t>
-  </si>
-  <si>
-    <t>海子塘滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂贤乡银政村4社</t>
-  </si>
-  <si>
-    <t>山羊平滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县桂树乡银政村2社</t>
-  </si>
-  <si>
-    <t>泥质砂岩</t>
+    <t>Yankou Village, Huangmu Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuijingkan landslide</t>
+  </si>
+  <si>
+    <t>Sanhe Village, Group 1, Huangmu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Puzigou landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Shigou Village, Huangmu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Haizitang landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Yinzheng Village, Guixian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Goat Smooth Slope</t>
+  </si>
+  <si>
+    <t>Group 2, Yinzheng Village, Guishu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Muddy sandstone</t>
   </si>
   <si>
     <t>H046</t>
   </si>
   <si>
-    <t>胡家沟泥石流</t>
+    <t>Hujiagou debris flow</t>
   </si>
   <si>
     <t>N004</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万工乡石场村</t>
-  </si>
-  <si>
-    <t>范大沟泥石流</t>
+    <t>Shichang Village, Wangong Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fandagou debris flow</t>
   </si>
   <si>
     <t>N003</t>
   </si>
   <si>
-    <t>管山村1组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县梨园乡栗园村2社</t>
-  </si>
-  <si>
-    <t>粉质粘土,砂泥岩</t>
-  </si>
-  <si>
-    <t>306省道临万工集镇拐弯处滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县万工乡万场村9社</t>
-  </si>
-  <si>
-    <t>烧房地滑坡</t>
+    <t>Guanshan Village Group 1 Landslide</t>
+  </si>
+  <si>
+    <t>Liyuan Village 2, Liyuan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fine clay, sandstone and mudstone</t>
+  </si>
+  <si>
+    <t>Landslide at the bend of Provincial Highway 306 in Linwangongji Town</t>
+  </si>
+  <si>
+    <t>Group 9, Wanchang Village, Wangong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Burning house land landslide</t>
   </si>
   <si>
     <t>H063</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万工乡管山村</t>
-  </si>
-  <si>
-    <t>万场9社不稳定斜坡</t>
+    <t>Guanshan Village, Wangong Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Unstable slope of Wanchang 9th Society</t>
   </si>
   <si>
     <t>HX203</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万工乡万场村</t>
-  </si>
-  <si>
-    <t>李家坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县万工乡管山村2社</t>
-  </si>
-  <si>
-    <t>単斜构造</t>
-  </si>
-  <si>
-    <t>大磨坊滑坡（猴儿岩）</t>
+    <t>Wanchang Village, Wangong Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Lijiapo landslide</t>
+  </si>
+  <si>
+    <t>Guanshan Village 2, Wangong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Oblique structure</t>
+  </si>
+  <si>
+    <t>Big Mill Landslide (Monkey Rock)</t>
   </si>
   <si>
     <t>H062</t>
   </si>
   <si>
-    <t>大槽头滑坡</t>
+    <t>Da Caotou landslide</t>
   </si>
   <si>
     <t>H068</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万工乡双合村</t>
-  </si>
-  <si>
-    <t>大沟口滑坡</t>
+    <t>Shuanghe Village, Wangong Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dagoukou landslide</t>
   </si>
   <si>
     <t>H064</t>
   </si>
   <si>
-    <t>桥桥沟滑坡</t>
+    <t>Qiaoqiaogou landslide</t>
   </si>
   <si>
     <t>H069</t>
   </si>
   <si>
-    <t>大沟头滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县万工乡管山村5社</t>
-  </si>
-  <si>
-    <t>丁丁岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县青富乡青富村8社</t>
-  </si>
-  <si>
-    <t>粉砂碎屑岩</t>
-  </si>
-  <si>
-    <t>定期目视检查$地面位移监测</t>
-  </si>
-  <si>
-    <t>管山村3社滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县万工乡管山村3社</t>
-  </si>
-  <si>
-    <t>柑子坪滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县万工乡管山村4社</t>
-  </si>
-  <si>
-    <t>砂,泥岩</t>
-  </si>
-  <si>
-    <t>石家沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县皇木乡石沟村1社</t>
-  </si>
-  <si>
-    <t>柑子坪滑坡</t>
+    <t>Dagoutou Landslide 2</t>
+  </si>
+  <si>
+    <t>Guanshan Village Community 5, Wangong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dingdinggang landslide</t>
+  </si>
+  <si>
+    <t>Group 8, Qingfu Village, Qingfu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fine sand clastic rock</t>
+  </si>
+  <si>
+    <t>Regular visual inspection and ground displacement monitoring</t>
+  </si>
+  <si>
+    <t>Guanshan Village 3 Landslide</t>
+  </si>
+  <si>
+    <t>Guanshan Village 3, Wangong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Ganziping Landslide 2</t>
+  </si>
+  <si>
+    <t>Guanshan Village Community 4, Wangong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Sand, mudstone</t>
+  </si>
+  <si>
+    <t>Shijiagou debris flow</t>
+  </si>
+  <si>
+    <t>Group 1, Shigou Village, Huangmu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Ganziping landslide</t>
   </si>
   <si>
     <t>H065</t>
   </si>
   <si>
-    <t>干河沟滑坡</t>
+    <t>Ganhegou landslide</t>
   </si>
   <si>
     <t>H104</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县青富乡青富村</t>
-  </si>
-  <si>
-    <t>管山一组滑坡</t>
+    <t>Qingfu Village, Qingfu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Guanshan landslide group</t>
   </si>
   <si>
     <t>H061</t>
   </si>
   <si>
-    <t>松林坡滑坡</t>
+    <t>Songlinpo landslide</t>
   </si>
   <si>
     <t>H163</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县白岩乡双海村</t>
-  </si>
-  <si>
-    <t>金岩4、12社滑坡</t>
+    <t>Shuanghai Village, Baiyan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslides in Jinyan 4 and 12 communities</t>
   </si>
   <si>
     <t>H067</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万工乡金岩村</t>
-  </si>
-  <si>
-    <t>施家沟泥石流</t>
+    <t>Jinyan Village, Wangong Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shijiagou debris flow</t>
   </si>
   <si>
     <t>N011</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县皇木镇石沟村</t>
-  </si>
-  <si>
-    <t>马家沟滑坡</t>
+    <t>Shigou Village, Huangmu Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Majiagou landslide</t>
   </si>
   <si>
     <t>H164</t>
   </si>
   <si>
-    <t>肖家岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县工万乡金岩村4、10、12社</t>
-  </si>
-  <si>
-    <t>李家沟头滑坡</t>
+    <t>Xiaojiagang landslide</t>
+  </si>
+  <si>
+    <t>4, 10, and 12 communities of Jinyan Village, Gongwan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Lijiagoutou landslide</t>
   </si>
   <si>
     <t>H066</t>
   </si>
   <si>
-    <t>炒米岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡中海村7社</t>
-  </si>
-  <si>
-    <t>単斜</t>
-  </si>
-  <si>
-    <t>大田头滑坡</t>
+    <t>Chao Mi Gang landslide</t>
+  </si>
+  <si>
+    <t>Group 7, Zhonghai Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xie Xie</t>
+  </si>
+  <si>
+    <t>Datiantou landslide</t>
   </si>
   <si>
     <t>H161</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县白岩乡两河村</t>
-  </si>
-  <si>
-    <t>十三湾滑坡</t>
-  </si>
-  <si>
-    <t>皂角树滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡西河村2、3、4社</t>
-  </si>
-  <si>
-    <t>鸣鹿8村滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富林乡鸣鹿村8社</t>
-  </si>
-  <si>
-    <t>粉砂岩</t>
-  </si>
-  <si>
-    <t>安装简易监测设施$地面位移监测$深部位移监测</t>
-  </si>
-  <si>
-    <t>大环地滑坡</t>
+    <t>Lianghe Village, Baiyan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Thirteen Bay Landslide</t>
+  </si>
+  <si>
+    <t>Zaojiaoshu landslide</t>
+  </si>
+  <si>
+    <t>Communities 2, 3, and 4, Xihe Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Minglu 8 Village Landslide</t>
+  </si>
+  <si>
+    <t>Minglu Village 8, Fulin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>siltstone</t>
+  </si>
+  <si>
+    <t>Install simple monitoring facilities $ground displacement monitoring $deep displacement monitoring</t>
+  </si>
+  <si>
+    <t>Dahuan landslide</t>
   </si>
   <si>
     <t>H162</t>
   </si>
   <si>
-    <t>火烧坡滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡河西村1社</t>
-  </si>
-  <si>
-    <t>泥岩,砂岩</t>
-  </si>
-  <si>
-    <t>白家岩崩塌</t>
+    <t>Huoshaopo Landslide 2</t>
+  </si>
+  <si>
+    <t>Group 1, Hexi Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Mudstone, sandstone</t>
+  </si>
+  <si>
+    <t>Baijiayan collapse</t>
   </si>
   <si>
     <t>B007</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县马烈乡深溪村</t>
-  </si>
-  <si>
-    <t>白家崖滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县马烈乡深澳村1社</t>
-  </si>
-  <si>
-    <t>老屋基滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡中海村2社</t>
-  </si>
-  <si>
-    <t>高山庙滑坡1</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡中海村3社</t>
-  </si>
-  <si>
-    <t>周家堡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县安乐乡鹤梧村3社</t>
+    <t>Shenxi Village, Mali Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baijiaya landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Shen'ao Village, Mali Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Laowuji landslide</t>
+  </si>
+  <si>
+    <t>Zhonghai Village 2, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Gaoshanmiao Landslide 1</t>
+  </si>
+  <si>
+    <t>Group 3, Zhonghai Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhoujiabao landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Hewu Village, Anle Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H057</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县安乐乡洪福村</t>
-  </si>
-  <si>
-    <t>大池坝林滑坡</t>
+    <t>Hongfu Village, Anle Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dachibalin landslide</t>
   </si>
   <si>
     <t>H165</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县白岩乡伏龙村</t>
-  </si>
-  <si>
-    <t>东沟泥石流</t>
+    <t>Fulong Village, Baiyan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Donggou debris flow</t>
   </si>
   <si>
     <t>N014</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富林镇鸣鹿村</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡桃湾村</t>
-  </si>
-  <si>
-    <t>专业监测$工程治理</t>
-  </si>
-  <si>
-    <t>白林头不稳定斜坡</t>
+    <t>Minglu Village, Fulin Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Taowan Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Professional Monitoring $Engineering Governance</t>
+  </si>
+  <si>
+    <t>Unstable slope in Bailingtou</t>
   </si>
   <si>
     <t>HX202</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县安乐乡鹤梧村</t>
-  </si>
-  <si>
-    <t>乔家湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡伏龙村3社</t>
+    <t>Hewu Village, Anle Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qiaojiawan landslide</t>
+  </si>
+  <si>
+    <t>Fulong Village Community 3, Baiyan Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>Ⅵ</t>
   </si>
   <si>
-    <t>柑子坪滑坡1</t>
-  </si>
-  <si>
-    <t>四川省汉源县安乐乡洪福村5社</t>
-  </si>
-  <si>
-    <t>李家湾滑坡</t>
-  </si>
-  <si>
-    <t>群测群防$专业监测</t>
-  </si>
-  <si>
-    <t>大沟头崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县安乐乡水沟村1社</t>
-  </si>
-  <si>
-    <t>平斜构造</t>
-  </si>
-  <si>
-    <t>麦地滑坡</t>
+    <t>Ganziping Landslide 1</t>
+  </si>
+  <si>
+    <t>Group 5, Hongfu Village, Anle Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Lijiawan landslide</t>
+  </si>
+  <si>
+    <t>Group testing and prevention, professional monitoring</t>
+  </si>
+  <si>
+    <t>Big Gully Head Collapse</t>
+  </si>
+  <si>
+    <t>Shuigou Village, Anle Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Oblique structure</t>
+  </si>
+  <si>
+    <t>Maidi landslide</t>
   </si>
   <si>
     <t>H050</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富林镇麦地村</t>
-  </si>
-  <si>
-    <t>姜家沟泥石流</t>
+    <t>Maidi Village, Fulin Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jiangjiagou debris flow</t>
   </si>
   <si>
     <t>N016</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县青富乡富贤村</t>
-  </si>
-  <si>
-    <t>鸣鹿6组滑坡</t>
+    <t>Fuxian Village, Qingfu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Minglu Group 6 Landslide</t>
   </si>
   <si>
     <t>H049</t>
   </si>
   <si>
-    <t>洪顺3组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县安乐乡洪顺村3社</t>
-  </si>
-  <si>
-    <t>红顺3组滑坡</t>
+    <t>Hongshun Group 3 landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Hongshun Village, Anle Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Hongshun Group 3 landslide</t>
   </si>
   <si>
     <t>H059</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县安乐乡红顺村</t>
-  </si>
-  <si>
-    <t>桃子山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡桃湾村1社</t>
-  </si>
-  <si>
-    <t>背后山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富林乡鸣鹿村7社</t>
-  </si>
-  <si>
-    <t>石湾沟断裂西南</t>
-  </si>
-  <si>
-    <t>群测群防$搬迁避让$工程治理</t>
+    <t>Hongshun Village, Anle Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Taozishan landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Taowan Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Back Mountain Landslide</t>
+  </si>
+  <si>
+    <t>Group 7, Minglu Village, Fulin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southwest of Shiwangou Fault</t>
+  </si>
+  <si>
+    <t>Group testing and prevention, relocation avoidance, and engineering governance</t>
   </si>
   <si>
     <t>H129</t>
   </si>
   <si>
-    <t>香叶书滑坡</t>
+    <t>Fragrant Leaf Book Landslide</t>
   </si>
   <si>
     <t>H166</t>
   </si>
   <si>
-    <t>治安村1组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县安乐乡治安村1社</t>
-  </si>
-  <si>
-    <t>细粉砂</t>
-  </si>
-  <si>
-    <t>钱家山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富林乡广淮村4社</t>
-  </si>
-  <si>
-    <t>淮河断裂西段</t>
-  </si>
-  <si>
-    <t>康家湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡富塘村3社</t>
-  </si>
-  <si>
-    <t>碎块石</t>
-  </si>
-  <si>
-    <t>坛子沟滑坡</t>
+    <t>Landslide in Group 1 of Public Security Village</t>
+  </si>
+  <si>
+    <t>Community 1, Public Security Village, Anle Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fine powder sand</t>
+  </si>
+  <si>
+    <t>Qianjiashan landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Guanghuai Village, Fulin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>The western section of the Huaihe River Fault</t>
+  </si>
+  <si>
+    <t>Kangjiawan landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Futang Village, Rong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>debris</t>
+  </si>
+  <si>
+    <t>Tanzigou landslide</t>
   </si>
   <si>
     <t>H048</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富林镇广源村</t>
-  </si>
-  <si>
-    <t>干沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县马列项马列村7社</t>
-  </si>
-  <si>
-    <t>马鞍山滑坡</t>
+    <t>Guangyuan Village, Fulin Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Gangou debris flow</t>
+  </si>
+  <si>
+    <t>Group 7, Malixiang Malie Village, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Ma'anshan landslide</t>
   </si>
   <si>
     <t>H051</t>
   </si>
   <si>
-    <t>白岩岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县安乐乡红顺村2社</t>
-  </si>
-  <si>
-    <t>大坝上滑坡</t>
+    <t>Baiyangang landslide</t>
+  </si>
+  <si>
+    <t>Group 2, Hongshun Village, Anle Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on the dam</t>
   </si>
   <si>
     <t>H056</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县安乐乡治安村</t>
-  </si>
-  <si>
-    <t>草荒坟滑坡</t>
+    <t>Anle Township Public Security Village, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Caohuangfen landslide</t>
   </si>
   <si>
     <t>H186</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县市荣乡富塘村</t>
-  </si>
-  <si>
-    <t>草荒地滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县市容乡富塘村1社</t>
-  </si>
-  <si>
-    <t>粉质粘土,碎石土</t>
-  </si>
-  <si>
-    <t>8号路东滑坡</t>
-  </si>
-  <si>
-    <t>金坪断裂东端</t>
+    <t>Futang Village, Rong Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Grassland landslide</t>
+  </si>
+  <si>
+    <t>Futang Village, Chengcheng Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Powdery clay, gravel soil</t>
+  </si>
+  <si>
+    <t>No. 8 Road East Landslide</t>
+  </si>
+  <si>
+    <t>East end of Jinping Fault</t>
   </si>
   <si>
     <t>H188</t>
   </si>
   <si>
-    <t>蚂蟥岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡桃湾村2社</t>
-  </si>
-  <si>
-    <t>陈家院子滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡富塘村1社</t>
+    <t>Maqiangang landslide</t>
+  </si>
+  <si>
+    <t>Group 2, Taowan Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Chen Family Courtyard Landslide</t>
+  </si>
+  <si>
+    <t>Futang Village, Rong Township, Hanyuan County, Sichuan Province, China</t>
   </si>
   <si>
     <t>H187</t>
   </si>
   <si>
-    <t>石桅杆滑坡</t>
+    <t>Stone mast landslide</t>
   </si>
   <si>
     <t>H160</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县白岩乡向明村</t>
-  </si>
-  <si>
-    <t>安家岩沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县皇木乡光荣村4社</t>
-  </si>
-  <si>
-    <t>垮山头滑坡</t>
+    <t>Xiangming Village, Baiyan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Anjiayangou debris flow</t>
+  </si>
+  <si>
+    <t>Group 4, Guangrong Village, Huangmu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on the collapsed hill</t>
   </si>
   <si>
     <t>H022</t>
@@ -1506,268 +1506,268 @@
     <t>N010</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县马烈乡马烈村</t>
-  </si>
-  <si>
-    <t>曹家坟滑坡</t>
+    <t>Malie Village, Malie Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Caojiafen landslide</t>
   </si>
   <si>
     <t>H039</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富泉乡建全村</t>
-  </si>
-  <si>
-    <t>烂包头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县安乐乡红岩村3社</t>
-  </si>
-  <si>
-    <t>定期目视检查$深部位移监测</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡建全村4社</t>
-  </si>
-  <si>
-    <t>石渣够断山西南部</t>
-  </si>
-  <si>
-    <t>斜坡</t>
-  </si>
-  <si>
-    <t>坟平头</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡兰加村5社</t>
-  </si>
-  <si>
-    <t>金坪断裂末端</t>
-  </si>
-  <si>
-    <t>工程治理</t>
-  </si>
-  <si>
-    <t>烂坝头滑坡</t>
+    <t>Jianquan Village, Fuquan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Rotten Baotou landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Hongyan Village, Anle Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Regular visual inspection and deep displacement monitoring</t>
+  </si>
+  <si>
+    <t>Jianquan Village, Fuquan Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>The stone slag is enough to break the southwestern part of the mountain</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>Tomb Flat Head</t>
+  </si>
+  <si>
+    <t>Community 5, Lanjia Village, Fuquan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>End of Jinping Fault</t>
+  </si>
+  <si>
+    <t>Engineering governance</t>
+  </si>
+  <si>
+    <t>Rotten Batou landslide</t>
   </si>
   <si>
     <t>H058</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县安乐乡红岩乡</t>
-  </si>
-  <si>
-    <t>挖断山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡建全村1社</t>
-  </si>
-  <si>
-    <t>石渣沟断裂西北部</t>
-  </si>
-  <si>
-    <t>大裂口泥石流</t>
-  </si>
-  <si>
-    <t>八子地滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡向明村1社</t>
-  </si>
-  <si>
-    <t>陈家沟滑坡</t>
+    <t>Hongyan Township, Anle Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Excavate the mountain landslide</t>
+  </si>
+  <si>
+    <t>Jianquan Village, Fuquan Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Northwest of Shizagou Fault</t>
+  </si>
+  <si>
+    <t>Large crack debris flow</t>
+  </si>
+  <si>
+    <t>Bazidi landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Xiangming Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Chenjiagou landslide</t>
   </si>
   <si>
     <t>H185</t>
   </si>
   <si>
-    <t>大雪头滑坡</t>
+    <t>Daxuetou landslide</t>
   </si>
   <si>
     <t>H189</t>
   </si>
   <si>
-    <t>四川省汉源县市荣乡富塘村4社</t>
+    <t>Group 4, Futang Village, Rong Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H040</t>
   </si>
   <si>
-    <t>挖断山崩塌</t>
+    <t>Excavating mountains and collapsing</t>
   </si>
   <si>
     <t>B002</t>
   </si>
   <si>
-    <t>朱家坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡桃湾村4、6社</t>
-  </si>
-  <si>
-    <t>大拐上滑坡</t>
+    <t>Zhujiaping landslide</t>
+  </si>
+  <si>
+    <t>Groups 4 and 6, Taowan Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Da Guai landslide</t>
   </si>
   <si>
     <t>H167</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县白岩乡桃湾村</t>
-  </si>
-  <si>
-    <t>鸡老壳岩滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡胡叶村1社</t>
-  </si>
-  <si>
-    <t>块碎石</t>
-  </si>
-  <si>
-    <t>剪刀崖崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县马烈乡新华村3社</t>
-  </si>
-  <si>
-    <t>孔隙水$岩溶水</t>
-  </si>
-  <si>
-    <t>顺河断裂东北翼</t>
-  </si>
-  <si>
-    <t>龙潭沟滑坡</t>
+    <t>Taowan Village, Baiyan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jilao Shell Rock Landslide</t>
+  </si>
+  <si>
+    <t>Huye Village 1, Fuquan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Crushed stones</t>
+  </si>
+  <si>
+    <t>Scissor Cliff Collapse</t>
+  </si>
+  <si>
+    <t>Xinhua Village 3, Mali Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Pore water $Karst water</t>
+  </si>
+  <si>
+    <t>Northeast wing of Shunhe Fault</t>
+  </si>
+  <si>
+    <t>Longtan Gully Landslide</t>
   </si>
   <si>
     <t>H184</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县市荣乡红砂村</t>
-  </si>
-  <si>
-    <t>飞鹅岗滑坡</t>
+    <t>Hongsha Village, Rongxiang, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fei'egang landslide</t>
   </si>
   <si>
     <t>H042</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富泉乡胡叶村</t>
-  </si>
-  <si>
-    <t>张家岗滑坡</t>
+    <t>Huye Village, Fuquan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhangjiagang landslide</t>
   </si>
   <si>
     <t>H102</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万里乡平安村</t>
-  </si>
-  <si>
-    <t>剪刀崖滑坡</t>
+    <t>Ping'an Village, Wanli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Scissor Cliff Landslide</t>
   </si>
   <si>
     <t>H091</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县马烈乡新华村</t>
-  </si>
-  <si>
-    <t>天鹅岗滑坡1</t>
-  </si>
-  <si>
-    <t>天鹅岗滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡平安村4社</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡红砂村1、3、8、9社</t>
-  </si>
-  <si>
-    <t>金坪断裂东南部</t>
-  </si>
-  <si>
-    <t>兰加村5组不稳定斜坡</t>
+    <t>Xinhua Village, Mali Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Swan Hill Landslide 1</t>
+  </si>
+  <si>
+    <t>Tian'egang Landslide 2</t>
+  </si>
+  <si>
+    <t>Group 4, Ping'an Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>1, 3, 8, and 9 communities of Hongsha Village, Rongxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southeast of Jinping Fault</t>
+  </si>
+  <si>
+    <t>Unstable slopes in Group 5 of Lanjia Village</t>
   </si>
   <si>
     <t>HX201</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富泉乡兰加村</t>
-  </si>
-  <si>
-    <t>红砂槽滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡红砂村5社</t>
-  </si>
-  <si>
-    <t>飞水崖滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡胡叶村2社</t>
-  </si>
-  <si>
-    <t>孔隙水$裂隙水</t>
-  </si>
-  <si>
-    <t>粉质粘土夹碎石</t>
+    <t>Lanjia Village, Fuquan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Hongshacao landslide</t>
+  </si>
+  <si>
+    <t>Group 5, Hongsha Village, Rongxiang, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Feishui Cliff Landslide</t>
+  </si>
+  <si>
+    <t>Huye Village 2, Fuquan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Pore water $Crack water</t>
+  </si>
+  <si>
+    <t>Fine clay mixed with crushed stone</t>
   </si>
   <si>
     <t>H041</t>
   </si>
   <si>
-    <t>榨地头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡坪安村4社</t>
-  </si>
-  <si>
-    <t>石渣沟断裂</t>
+    <t>Zhaditou landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Ping'an Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shizagou fracture</t>
   </si>
   <si>
     <t>H101</t>
   </si>
   <si>
-    <t>向明村五组滑坡</t>
+    <t>Landslide in Group 5 of Xiangming Village</t>
   </si>
   <si>
     <t>H159</t>
   </si>
   <si>
-    <t>树林头滑坡</t>
+    <t>Shulin Head Landslide</t>
   </si>
   <si>
     <t>H158</t>
   </si>
   <si>
-    <t>苹果林滑坡1</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡向明村5社</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡向明村6社</t>
-  </si>
-  <si>
-    <t>水沟村崩塌</t>
+    <t>Apple Grove Landslide 1</t>
+  </si>
+  <si>
+    <t>Group 5, Xiangming Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 6, Xiangming Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Collapse of Shuigou Village</t>
   </si>
   <si>
     <t>B003</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县安乐乡水沟村</t>
-  </si>
-  <si>
-    <t>松林岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡红砂村4社</t>
-  </si>
-  <si>
-    <t>胡家院子滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡红砂村7社</t>
+    <t>Shuigou Village, Anle Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Songlingang landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Hongsha Village, Rongxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Hu Family Courtyard Landslide</t>
+  </si>
+  <si>
+    <t>Group 7, Hongsha Village, Rongxiang, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H182</t>
@@ -1776,25 +1776,25 @@
     <t>H181</t>
   </si>
   <si>
-    <t>黑石包头滑坡</t>
+    <t>Heishi Baotou landslide</t>
   </si>
   <si>
     <t>H180</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县市荣乡太坪村</t>
-  </si>
-  <si>
-    <t>小平头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县是荣乡太平村6社</t>
-  </si>
-  <si>
-    <t>粉质粘土夹块碎石</t>
-  </si>
-  <si>
-    <t>小坪头滑坡</t>
+    <t>Taiping Village, Rongxiang, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xiaopingtou landslide</t>
+  </si>
+  <si>
+    <t>Society 6, Taiping Village, Rongxiang, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Powdery clay mixed with crushed stones</t>
+  </si>
+  <si>
+    <t>Xiaopingtou landslide</t>
   </si>
   <si>
     <t>H178</t>
@@ -1803,388 +1803,388 @@
     <t>H183</t>
   </si>
   <si>
-    <t>石岗坪滑坡</t>
+    <t>Shigangping landslide</t>
   </si>
   <si>
     <t>H179</t>
   </si>
   <si>
-    <t>岩门口崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县白岩乡虫林村6社</t>
-  </si>
-  <si>
-    <t>石渣沟断裂西南</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡太平村2、3社</t>
-  </si>
-  <si>
-    <t>石洞槽危岩崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县马烈乡新合村3社</t>
-  </si>
-  <si>
-    <t>崖门口崩塌</t>
+    <t>Rock Gate Collapse</t>
+  </si>
+  <si>
+    <t>Community 6, Chonglin Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southwest of Shizagou Fault</t>
+  </si>
+  <si>
+    <t>Communities 2 and 3, Taiping Village, Rongxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dangerous rock collapse in Shidongcao</t>
+  </si>
+  <si>
+    <t>Group 3, Xinhe Village, Mali Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Cliff Gate Collapse</t>
   </si>
   <si>
     <t>B017</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县白岩乡虫林村</t>
-  </si>
-  <si>
-    <t>乔家坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡坪安村2社</t>
-  </si>
-  <si>
-    <t>九襄断裂东北部</t>
-  </si>
-  <si>
-    <t>乔家坡危岩</t>
+    <t>Chonglin Village, Baiyan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qiaojiapo landslide</t>
+  </si>
+  <si>
+    <t>Group 2, Ping'an Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northeast of Jiuxiang Fault</t>
+  </si>
+  <si>
+    <t>Qiaojiapo Dangerous Rock</t>
   </si>
   <si>
     <t>B015</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万里乡坪安村</t>
-  </si>
-  <si>
-    <t>辜家坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡建全村8社</t>
-  </si>
-  <si>
-    <t>玄武岩</t>
-  </si>
-  <si>
-    <t>红线沟崩塌</t>
+    <t>Ping'an Village, Wanli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Gujiapo landslide</t>
+  </si>
+  <si>
+    <t>Group 8, Jianquan Village, Fuquan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>basalt</t>
+  </si>
+  <si>
+    <t>Red line ditch collapse</t>
   </si>
   <si>
     <t>B014</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万里乡富泉村</t>
-  </si>
-  <si>
-    <t>石洞槽崩塌</t>
+    <t>Fuquan Village, Wanli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Stone cave collapse</t>
   </si>
   <si>
     <t>B008</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县马烈乡新合村</t>
-  </si>
-  <si>
-    <t>线线沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡富泉村4社</t>
-  </si>
-  <si>
-    <t>水竹子滑坡</t>
+    <t>Xinhe Village, Mali Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Line trench landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Fuquan Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuizhu landslide</t>
   </si>
   <si>
     <t>H038</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富泉乡大农村</t>
-  </si>
-  <si>
-    <t>范家沟泥石流</t>
+    <t>Da Nong Village, Fuquan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fanjiagou debris flow</t>
   </si>
   <si>
     <t>N013</t>
   </si>
   <si>
-    <t>水竹子崖</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡大农村5社</t>
-  </si>
-  <si>
-    <t>四川省汉源县富林乡麦地村1、2、3、4、6、7社</t>
-  </si>
-  <si>
-    <t>九襄断裂西北</t>
-  </si>
-  <si>
-    <t>铅场上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富泉乡香树村3社</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡富泉村4、5、6社</t>
-  </si>
-  <si>
-    <t>老水井沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县河西乡庄子村1社</t>
-  </si>
-  <si>
-    <t>金坪断裂东北部</t>
-  </si>
-  <si>
-    <t>大路上滑坡</t>
-  </si>
-  <si>
-    <t>砂岩,砂质页岩</t>
-  </si>
-  <si>
-    <t>长水塘危岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县河西乡庄子村12社</t>
-  </si>
-  <si>
-    <t>长水塘崩塌</t>
+    <t>Shuizhu Cliff</t>
+  </si>
+  <si>
+    <t>5 communities in Da Nong Village, Fuquan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Communities 1, 2, 3, 4, 6, and 7, Maidi Village, Fulin Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northwest of Jiuxiang Fault</t>
+  </si>
+  <si>
+    <t>Landslide on the lead field</t>
+  </si>
+  <si>
+    <t>Community 3, Xiangshu Village, Fuquan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Communities 4, 5, and 6, Fuquan Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Laoshuijinggou landslide</t>
+  </si>
+  <si>
+    <t>Community 1, Zhuangzi Village, Hexi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northeast of Jinping Fault</t>
+  </si>
+  <si>
+    <t>Landslide on the main road</t>
+  </si>
+  <si>
+    <t>Sandstone, sandy shale</t>
+  </si>
+  <si>
+    <t>Changshuitang dangerous rock</t>
+  </si>
+  <si>
+    <t>Group 12, Zhuangzi Village, Hexi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Changshuitang collapsed</t>
   </si>
   <si>
     <t>B005</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县河西乡庄子村</t>
-  </si>
-  <si>
-    <t>榨叶坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县河西乡庄子村3社</t>
-  </si>
-  <si>
-    <t>庄子三组滑坡</t>
+    <t>Zhuangzi Village, Hexi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhayepo landslide</t>
+  </si>
+  <si>
+    <t>Community 3, Zhuangzi Village, Hexi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhuangzi Group Three Landslides</t>
   </si>
   <si>
     <t>H074</t>
   </si>
   <si>
-    <t>郭儿坟滑坡</t>
+    <t>Guoerfen landslide</t>
   </si>
   <si>
     <t>H073</t>
   </si>
   <si>
-    <t>金花庙滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县河西乡香林村9社</t>
-  </si>
-  <si>
-    <t>灰岩,粉质粘土</t>
-  </si>
-  <si>
-    <t>周家公地滑坡</t>
+    <t>Jinhuamiao Landslide</t>
+  </si>
+  <si>
+    <t>Community 9, Xianglin Village, Hexi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Limestone, silty clay</t>
+  </si>
+  <si>
+    <t>Zhoujia Public Land Landslide</t>
   </si>
   <si>
     <t>H103</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万里乡沙坪村</t>
-  </si>
-  <si>
-    <t>二道坪危岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县河西乡香林村10社</t>
-  </si>
-  <si>
-    <t>家儿岩崩塌</t>
+    <t>Shaping Village, Wanli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Erdaoping Dangerous Rock</t>
+  </si>
+  <si>
+    <t>Group 10, Xianglin Village, Hexi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jia'er Rock Collapse</t>
   </si>
   <si>
     <t>B004</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县河西乡香林村</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡沙坪村6社</t>
-  </si>
-  <si>
-    <t>阳山1组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县河西乡阳山村1社</t>
-  </si>
-  <si>
-    <t>沽庄崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡联络村4社</t>
-  </si>
-  <si>
-    <t>石渣沟断裂向南</t>
-  </si>
-  <si>
-    <t>木叶村滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡联合村4社</t>
-  </si>
-  <si>
-    <t>西渣沟断裂西北部</t>
-  </si>
-  <si>
-    <t>木叶林滑坡</t>
+    <t>Xianglin Village, Hexi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 6, Shaping Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Yangshan Group 1 Landslide</t>
+  </si>
+  <si>
+    <t>Yangshan Village, Hexi Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Guzhuang collapse</t>
+  </si>
+  <si>
+    <t>Tangjia Township Liaison Village, Community 4, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>The Shizagou Fault is trending south</t>
+  </si>
+  <si>
+    <t>Muye Village landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Tangjia Township United Village, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northwest of Xizagou Fault</t>
+  </si>
+  <si>
+    <t>Muyelin landslide</t>
   </si>
   <si>
     <t>H169</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县唐家乡联合村</t>
-  </si>
-  <si>
-    <t>二道坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡联合村5社</t>
-  </si>
-  <si>
-    <t>石渣沟断裂西南部</t>
-  </si>
-  <si>
-    <t>龙塘村八组滑坡</t>
+    <t>Tangjia Township United Village, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Erdaoping landslide</t>
+  </si>
+  <si>
+    <t>Tangjia Township United Village 5 Community, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southwest of Shizagou Fault</t>
+  </si>
+  <si>
+    <t>Landslide in Group 8 of Longtang Village</t>
   </si>
   <si>
     <t>H194</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县河西乡龙塘村</t>
-  </si>
-  <si>
-    <t>大沟头滑坡1</t>
-  </si>
-  <si>
-    <t>四川省汉源县河西乡龙塘村8、9社</t>
-  </si>
-  <si>
-    <t>龙塘九组新滑坡</t>
+    <t>Longtang Village, Hexi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dagoutou Landslide 1</t>
+  </si>
+  <si>
+    <t>Communities 8 and 9, Longtang Village, Hexi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Longtang Jiuzu New Landslide</t>
   </si>
   <si>
     <t>H195</t>
   </si>
   <si>
-    <t>喇嘛溪沟泥石流</t>
+    <t>Mudflow in Lama Creek Gully</t>
   </si>
   <si>
     <t>N020</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县唐家乡合同村</t>
-  </si>
-  <si>
-    <t>龙塘村九组滑坡</t>
+    <t>Tangjia Township Contract Village, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide in Group 9 of Longtang Village</t>
   </si>
   <si>
     <t>H192</t>
   </si>
   <si>
-    <t>斜坡头滑坡</t>
+    <t>Slope head landslide</t>
   </si>
   <si>
     <t>H136</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大岭乡西南村</t>
-  </si>
-  <si>
-    <t>大岩危岩崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡里坪村7社</t>
-  </si>
-  <si>
-    <t>岩溶水</t>
-  </si>
-  <si>
-    <t>大岩头危岩</t>
+    <t>Southwest Village, Daling Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Da Yan dangerous rock collapse</t>
+  </si>
+  <si>
+    <t>Group 7, Liping Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>karst water</t>
+  </si>
+  <si>
+    <t>Da Yantou Dangerous Rock</t>
   </si>
   <si>
     <t>B012</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县万里乡里坪村</t>
-  </si>
-  <si>
-    <t>水塘头滑坡1</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡新场村4社</t>
-  </si>
-  <si>
-    <t>土神庙滑坡</t>
+    <t>Liping Village, Wanli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuitangtou Landslide 1</t>
+  </si>
+  <si>
+    <t>Group 4, Xinchang Village, Tangjia Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Tu Shen Temple landslide</t>
   </si>
   <si>
     <t>H172</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县唐家乡新场村</t>
-  </si>
-  <si>
-    <t>文武坡滑坡</t>
+    <t>Xinchang Village, Tangjia Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wenwu Slope Landslide</t>
   </si>
   <si>
     <t>H171</t>
   </si>
   <si>
-    <t>四川省汉源县唐家乡合同村3社</t>
-  </si>
-  <si>
-    <t>瓦窑坪滑坡</t>
+    <t>Tangjia Township Contract Village 3, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wayaoping landslide</t>
   </si>
   <si>
     <t>H174</t>
   </si>
   <si>
-    <t>毛家坡崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县万里乡里坪村5社</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡合同村2、3、4社</t>
-  </si>
-  <si>
-    <t>九襄断层西南部</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡新沟村4社</t>
-  </si>
-  <si>
-    <t>瓦岗坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡铜村3社</t>
-  </si>
-  <si>
-    <t>泥质白云岩,粉质砂岩</t>
-  </si>
-  <si>
-    <t>辣椒坪崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡联络村6社</t>
-  </si>
-  <si>
-    <t>石渣子端断裂西北部</t>
-  </si>
-  <si>
-    <t>核桃沟滑坡</t>
+    <t>Maojiapo collapse</t>
+  </si>
+  <si>
+    <t>Community 5, Liping Village, Wanli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Communities 2, 3, and 4 of Tangjia Township Contract Village, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southwest of Jiuxiang Fault</t>
+  </si>
+  <si>
+    <t>Group 4, Xingou Village, Tangjia Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wagangping landslide</t>
+  </si>
+  <si>
+    <t>Tangjia Township Copper Village 3 Community, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Muddy dolomite, siltstone</t>
+  </si>
+  <si>
+    <t>Chili Ping collapse</t>
+  </si>
+  <si>
+    <t>6 communities of Tangjia Township Liaison Village, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northwest of the Shizhazi Fault</t>
+  </si>
+  <si>
+    <t>Walnut Gully Landslide</t>
   </si>
   <si>
     <t>H135</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大岭乡青杠村</t>
-  </si>
-  <si>
-    <t>唐家湾滑坡</t>
+    <t>Qinggang Village, Daling Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Tangjiawan landslide</t>
   </si>
   <si>
     <t>H173</t>
@@ -2193,817 +2193,817 @@
     <t>H168</t>
   </si>
   <si>
-    <t>高山庙滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县大岭乡西南村1、2、3社</t>
-  </si>
-  <si>
-    <t>垮山头不稳定斜坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县唐家乡新场村3社</t>
+    <t>Gaoshanmiao Landslide 2</t>
+  </si>
+  <si>
+    <t>1, 2, and 3 communities of Southwest Village, Daling Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Unstable slopes on collapsed hills</t>
+  </si>
+  <si>
+    <t>Group 3, Xinchang Village, Tangjia Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H170</t>
   </si>
   <si>
-    <t>瓦渣坪滑坡</t>
+    <t>Wazhaping landslide</t>
   </si>
   <si>
     <t>H134</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大岭乡海子村</t>
-  </si>
-  <si>
-    <t>李金塘滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县后域乡大坪村3社</t>
-  </si>
-  <si>
-    <t>大相岭背斜西南部</t>
-  </si>
-  <si>
-    <t>李合塘滑坡</t>
+    <t>Haizi Village, Daling Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Li Jintang landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Daping Village, Houyu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southwest part of Daxiangling anticline</t>
+  </si>
+  <si>
+    <t>Lihetang landslide</t>
   </si>
   <si>
     <t>H084</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县后域乡大坪村</t>
-  </si>
-  <si>
-    <t>家担湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县后域乡张湾村1、2社</t>
-  </si>
-  <si>
-    <t>宜东向斜西南部</t>
-  </si>
-  <si>
-    <t>伽担湾滑坡</t>
+    <t>Daping Village, Houyu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jiadanwan landslide</t>
+  </si>
+  <si>
+    <t>Zhangwan Village 1 and 2 communities, Houyu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southwest part of Yidong syncline</t>
+  </si>
+  <si>
+    <t>Jiadanwan landslide</t>
   </si>
   <si>
     <t>H083</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县后域乡张湾村</t>
-  </si>
-  <si>
-    <t>马林盖滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县后域乡张湾村3社</t>
+    <t>Zhangwan Village, Houyu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Malingai landslide</t>
+  </si>
+  <si>
+    <t>Zhangwan Village, Community 3, Houyu Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H082</t>
   </si>
   <si>
-    <t>郭家山滑坡</t>
+    <t>Guojiashan landslide</t>
   </si>
   <si>
     <t>H085</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县后域乡全心村</t>
-  </si>
-  <si>
-    <t>脚基岭滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县后域乡全新村3社</t>
-  </si>
-  <si>
-    <t>蕨及岭滑坡</t>
+    <t>Quanxin Village, Houyu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jiaojiling landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Xinxin Village, Houyu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Fern and Ridge Landslide</t>
   </si>
   <si>
     <t>H086</t>
   </si>
   <si>
-    <t>四川省汉源县后域乡全新村9社</t>
-  </si>
-  <si>
-    <t>白饭溪滑坡</t>
+    <t>Group 9, Xinxin Village, Houyu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baifanxi landslide</t>
   </si>
   <si>
     <t>H080</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县前域乡康荣村</t>
-  </si>
-  <si>
-    <t>浸林子滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县九襄乡河西村6社</t>
-  </si>
-  <si>
-    <t>定期目视检查$安装简易监测设施</t>
+    <t>Kangrong Village, Qianyu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qianlinzi Landslide</t>
+  </si>
+  <si>
+    <t>Group 6, Hexi Village, Jiuxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Regular visual inspection and installation of simple monitoring facilities</t>
   </si>
   <si>
     <t>H088</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县九襄乡河西村</t>
-  </si>
-  <si>
-    <t>大土坝崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县后域乡白云村2社</t>
-  </si>
-  <si>
-    <t>龙坡水滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县九襄乡梨花村4社</t>
+    <t>Hexi Village, Jiuxiang Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>The collapse of the large earth dam</t>
+  </si>
+  <si>
+    <t>Group 2, Baiyun Village, Houyu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Longpo Water Landslide</t>
+  </si>
+  <si>
+    <t>Community 4, Lihua Village, Jiuxiang Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H087</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县九襄乡魏花村</t>
-  </si>
-  <si>
-    <t>点档沟崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县九襄乡上埝村2社</t>
-  </si>
-  <si>
-    <t>九襄断裂西南部</t>
-  </si>
-  <si>
-    <t>点槽沟崩塌</t>
+    <t>Weihua Village, Jiuxiang Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Collapse of Diandang Gully</t>
+  </si>
+  <si>
+    <t>Community 2, Shangnian Village, Jiuxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southwest of Jiuxiang Fault</t>
+  </si>
+  <si>
+    <t>Point trench collapse</t>
   </si>
   <si>
     <t>B006</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县九襄镇上想村</t>
-  </si>
-  <si>
-    <t>张岗滑坡</t>
+    <t>Shangxiang Village, Jiuxiang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhanggang landslide</t>
   </si>
   <si>
     <t>H081</t>
   </si>
   <si>
-    <t>洋湾头滑坡</t>
+    <t>Yangwantou landslide</t>
   </si>
   <si>
     <t>H033</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县两河乡赵院村</t>
-  </si>
-  <si>
-    <t>沈家沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡富乡村10社</t>
-  </si>
-  <si>
-    <t>宜东向斜西北部</t>
-  </si>
-  <si>
-    <t>黄院子滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两河乡赵院村2社</t>
-  </si>
-  <si>
-    <t>火烧坡滑坡1</t>
-  </si>
-  <si>
-    <t>四川省汉源县大田乡新中村6社</t>
-  </si>
-  <si>
-    <t>娃娃沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县九襄乡百桃村5社</t>
+    <t>Zhaoyuan Village, Lianghe Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shenjiagou landslide</t>
+  </si>
+  <si>
+    <t>10 communities in Fuchun Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northwest of Yidong syncline</t>
+  </si>
+  <si>
+    <t>Huangyuanzi landslide</t>
+  </si>
+  <si>
+    <t>Group 2, Zhaoyuan Village, Lianghe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Huoshao Slope Landslide 1</t>
+  </si>
+  <si>
+    <t>Group 6, Xinzhong Village, Datian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wawa Gully mudslide</t>
+  </si>
+  <si>
+    <t>Group 5, Baitao Village, Jiuxiang Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>N009</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县九襄镇白桃村</t>
-  </si>
-  <si>
-    <t>火烧坡滑坡</t>
+    <t>Baitao Village, Jiuxiang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Huoshaopo landslide</t>
   </si>
   <si>
     <t>H157</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大田乡新中村</t>
+    <t>Xinzhong Village, Datian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
   </si>
   <si>
     <t>H032</t>
   </si>
   <si>
-    <t>大席头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县前域乡全合村4社</t>
-  </si>
-  <si>
-    <t>大歇头滑坡</t>
+    <t>Daxitou landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Quanhe Village, Qianyu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Daxietou landslide</t>
   </si>
   <si>
     <t>H078</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县前域乡全合村</t>
-  </si>
-  <si>
-    <t>金银坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县前域乡金银坪村1、2、3社</t>
-  </si>
-  <si>
-    <t>金银坪安置点滑坡</t>
+    <t>Quanhe Village, Qianyu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jinyinping landslide</t>
+  </si>
+  <si>
+    <t>1, 2, and 3 communities of Jinyinping Village, Qianyu Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide at Jinyinping resettlement site</t>
   </si>
   <si>
     <t>H079</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县前域乡金银坪村</t>
-  </si>
-  <si>
-    <t>横路上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富庄乡联络村13社</t>
-  </si>
-  <si>
-    <t>宜东向斜东北部</t>
-  </si>
-  <si>
-    <t>岩湾头滑坡</t>
+    <t>Jinyinping Village, Qianyu Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on the horizontal road</t>
+  </si>
+  <si>
+    <t>13th Community, Lianlian Village, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northeastern part of Yidong syncline</t>
+  </si>
+  <si>
+    <t>Yanwantou landslide</t>
   </si>
   <si>
     <t>H199</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富庄镇联络村</t>
-  </si>
-  <si>
-    <t>白树沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县九襄乡枣林村1社</t>
-  </si>
-  <si>
-    <t>白桃沟泥石流</t>
+    <t>Lianlian Village, Fuzhuang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baishugou debris flow</t>
+  </si>
+  <si>
+    <t>Zaolin Village, Jiuxiang Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Baitaogou debris flow</t>
   </si>
   <si>
     <t>N008</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县九襄镇枣林村</t>
-  </si>
-  <si>
-    <t>鹰地沟滑坡</t>
+    <t>Zaolin Village, Jiuxiang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Yingdigou landslide</t>
   </si>
   <si>
     <t>H155</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大田乡建设村</t>
-  </si>
-  <si>
-    <t>厚地凹滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大田乡建设村4社</t>
-  </si>
-  <si>
-    <t>九襄断层南部</t>
-  </si>
-  <si>
-    <t>小沟口滑坡</t>
+    <t>Jianshe Village, Datian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Thick pit landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Jianshe Village, Datian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Southern part of Jiuxiang Fault</t>
+  </si>
+  <si>
+    <t>Xiaogoukou landslide</t>
   </si>
   <si>
     <t>H154</t>
   </si>
   <si>
-    <t>小沟头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大田乡建设村7社</t>
-  </si>
-  <si>
-    <t>山墩坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县双溪乡涂家村5社</t>
+    <t>Xiaogoutou landslide</t>
+  </si>
+  <si>
+    <t>Group 7, Jianshe Village, Datian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shandunpo landslide</t>
+  </si>
+  <si>
+    <t>Tujia Village, Shuangxi Township, Hanyuan County, Sichuan Province, China</t>
   </si>
   <si>
     <t>H077</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县双溪乡涂家村</t>
-  </si>
-  <si>
-    <t>红豆地滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富乡富兴村5社</t>
-  </si>
-  <si>
-    <t>宜东向斜东西部</t>
-  </si>
-  <si>
-    <t>一堵墙滑坡</t>
+    <t>Tujia Village, Shuangxi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Red Bean Landslide</t>
+  </si>
+  <si>
+    <t>Group 5, Fuxing Village, Fuxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>The eastern and western parts of the Yidong syncline</t>
+  </si>
+  <si>
+    <t>A wall landslide</t>
   </si>
   <si>
     <t>H156</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大田乡胜利村</t>
-  </si>
-  <si>
-    <t>两边山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县九襄乡满埝村9社</t>
-  </si>
-  <si>
-    <t>大沟头泥石流</t>
-  </si>
-  <si>
-    <t>雨情$泥位</t>
+    <t>Shengli Village, Datian Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslides on both sides of the mountain</t>
+  </si>
+  <si>
+    <t>Group 9, Mannian Village, Jiuxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dagoutou debris flow</t>
+  </si>
+  <si>
+    <t>Rain situation $mud level</t>
   </si>
   <si>
     <t>H153</t>
   </si>
   <si>
-    <t>新河泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县九襄乡涂家村1社</t>
-  </si>
-  <si>
-    <t>特大型</t>
-  </si>
-  <si>
-    <t>拉木冲沟泥石流</t>
+    <t>Xinhe mudslide</t>
+  </si>
+  <si>
+    <t>Tujia Village, Jiuxiang Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>extra large</t>
+  </si>
+  <si>
+    <t>Lamu Gully debris flow</t>
   </si>
   <si>
     <t>N002</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富乡乡富湾村</t>
-  </si>
-  <si>
-    <t>四川省汉源县富乡乡富湾村3社</t>
-  </si>
-  <si>
-    <t>新沟泥石流</t>
+    <t>Fuwan Village, Fuxiang Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 3, Fuwan Village, Fuxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xingou debris flow</t>
   </si>
   <si>
     <t>N007</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县九襄镇杏林村</t>
-  </si>
-  <si>
-    <t>当门坡滑坡</t>
+    <t>Xinglin Village, Jiuxiang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dangmenpo landslide</t>
   </si>
   <si>
     <t>H036</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富乡乡富和村</t>
-  </si>
-  <si>
-    <t>桐子包滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两河乡双江村5社</t>
-  </si>
-  <si>
-    <t>太平沟滑坡</t>
+    <t>Fuhe Village, Fuxiang Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Tongzibao landslide</t>
+  </si>
+  <si>
+    <t>Group 5, Shuangjiang Village, Lianghe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Taipinggou landslide</t>
   </si>
   <si>
     <t>H037</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富乡乡富洪村</t>
+    <t>Fuhong Village, Fuxiang Township, Hanyuan County, Ya'an City, Sichuan Province</t>
   </si>
   <si>
     <t>H031</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县两河乡双江村</t>
-  </si>
-  <si>
-    <t>四川省汉源县富乡乡富洪村3社</t>
-  </si>
-  <si>
-    <t>松林头滑坡</t>
+    <t>Shuangjiang Village, Lianghe Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 3, Fuhong Village, Fuxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Songlintou landslide</t>
   </si>
   <si>
     <t>H035</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县两河乡五星村</t>
-  </si>
-  <si>
-    <t>四川省汉源县富乡乡富和村6、7、8社</t>
-  </si>
-  <si>
-    <t>地面位移监测$深部位移监测</t>
-  </si>
-  <si>
-    <t>修山沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富庄乡联络村12社</t>
-  </si>
-  <si>
-    <t>修水沟滑坡</t>
+    <t>Wuxing Village, Lianghe Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Communities 6, 7, and 8, Fuhe Village, Fuxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Ground displacement monitoring $Deep displacement monitoring</t>
+  </si>
+  <si>
+    <t>Xiu Shan Gou landslide</t>
+  </si>
+  <si>
+    <t>12th Community, Lianlian Village, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Repairing water ditch landslides</t>
   </si>
   <si>
     <t>H200</t>
   </si>
   <si>
-    <t>黄泥坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县双溪乡木兰村3、4社</t>
-  </si>
-  <si>
-    <t>浸水沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两河乡五星村1社</t>
-  </si>
-  <si>
-    <t>四川省汉源县两河乡五星村3社</t>
-  </si>
-  <si>
-    <t>裂隙水$潜水</t>
-  </si>
-  <si>
-    <t>金坪断裂</t>
-  </si>
-  <si>
-    <t>樱桃树滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富庄乡河东村4社</t>
-  </si>
-  <si>
-    <t>李家山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县双溪乡申沟村5社</t>
+    <t>Huangnipo landslide</t>
+  </si>
+  <si>
+    <t>Communities 3 and 4, Mulan Village, Shuangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Immersion ditch landslide</t>
+  </si>
+  <si>
+    <t>Wuxing Village Community 1, Lianghe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 3, Wuxing Village, Lianghe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Crack water $diving</t>
+  </si>
+  <si>
+    <t>Jinping Fault</t>
+  </si>
+  <si>
+    <t>Cherry tree landslide</t>
+  </si>
+  <si>
+    <t>Community 4, Hedong Village, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Lijiashan landslide</t>
+  </si>
+  <si>
+    <t>Group 5, Shengou Village, Shuangxi Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H029</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富庄镇河东村</t>
-  </si>
-  <si>
-    <t>四川省汉源县大田乡胜利村4社</t>
-  </si>
-  <si>
-    <t>砂泥岩</t>
-  </si>
-  <si>
-    <t>五星村4组滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两河乡五星村4社</t>
-  </si>
-  <si>
-    <t>飘草林滑坡</t>
+    <t>Hedong Village, Fuzhuang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 4, Shengli Village, Datian Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>sandy mudstone</t>
+  </si>
+  <si>
+    <t>Landslide in Group 4 of Wuxing Village</t>
+  </si>
+  <si>
+    <t>Group 4, Wuxing Village, Lianghe Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Piaocaolin landslide</t>
   </si>
   <si>
     <t>H034</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富乡乡富原村</t>
-  </si>
-  <si>
-    <t>马鞍腰滑坡</t>
-  </si>
-  <si>
-    <t>寨子坡滑坡</t>
+    <t>Fuyuan Village, Fuxiang Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Ma'anyao landslide</t>
+  </si>
+  <si>
+    <t>Zhaizipo landslide</t>
   </si>
   <si>
     <t>H137</t>
   </si>
   <si>
-    <t>在子坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富庄乡河东村3社</t>
-  </si>
-  <si>
-    <t>滴水岩滑坡</t>
+    <t>In the Zipo landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Hedong Village, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dishuiyan landslide</t>
   </si>
   <si>
     <t>H196</t>
   </si>
   <si>
-    <t>四川省汉源县富乡乡富原村4社</t>
-  </si>
-  <si>
-    <t>金坪断裂北部</t>
-  </si>
-  <si>
-    <t>富厚村5组危岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县富乡乡富原村5社</t>
-  </si>
-  <si>
-    <t>四川省汉源县富庄乡永兴村2、3社</t>
-  </si>
-  <si>
-    <t>桃子坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富庄乡富庄村1社</t>
+    <t>Fuyuan Village, Fuxiang Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Northern Jinping Fault</t>
+  </si>
+  <si>
+    <t>5 groups of dangerous rocks in Fuhou Village</t>
+  </si>
+  <si>
+    <t>Fuyuan Village, Fuxiang Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Communities 2 and 3, Yongxing Village, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Taoziping landslide</t>
+  </si>
+  <si>
+    <t>Fuzhuang Village 1, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H030</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富庄镇富庄村</t>
-  </si>
-  <si>
-    <t>水沟头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡松江村5社</t>
-  </si>
-  <si>
-    <t>大湾岩滑坡</t>
+    <t>Fuzhuang Village, Fuzhuang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuigoutou landslide</t>
+  </si>
+  <si>
+    <t>Group 5, Songjiang Village, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dawanyan landslide</t>
   </si>
   <si>
     <t>H197</t>
   </si>
   <si>
-    <t>四川省汉源县富庄乡河东村5社</t>
-  </si>
-  <si>
-    <t>涭水岭滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡陈河村5社</t>
-  </si>
-  <si>
-    <t>矮板凳滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县建黎乡双坪村1、2、3社</t>
-  </si>
-  <si>
-    <t>九襄断裂</t>
-  </si>
-  <si>
-    <t>浸水岭滑坡</t>
+    <t>Group 5, Hedong Village, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Wushuiling landslide</t>
+  </si>
+  <si>
+    <t>Chenhe Village, Community 5, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Short stool landslide</t>
+  </si>
+  <si>
+    <t>Communities 1, 2, and 3, Shuangping Village, Jianli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Jiuxiang Fault</t>
+  </si>
+  <si>
+    <t>Jinshiling landslide</t>
   </si>
   <si>
     <t>H149</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县西溪乡陈河村</t>
-  </si>
-  <si>
-    <t>杜家湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡陈河村6社</t>
-  </si>
-  <si>
-    <t>地面位移监测</t>
+    <t>Chenhe Village, Xixi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dujiawan landslide</t>
+  </si>
+  <si>
+    <t>Chenhe Village, Group 6, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Ground displacement monitoring</t>
   </si>
   <si>
     <t>H152</t>
   </si>
   <si>
-    <t>四川省汉源县白岩乡双海村2、3、4社</t>
-  </si>
-  <si>
-    <t>泥质粉砂岩</t>
-  </si>
-  <si>
-    <t>大西头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县富庄乡永兴县11社</t>
+    <t>Communities 2, 3, and 4, Shuanghai Village, Baiyan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>silty mudstone</t>
+  </si>
+  <si>
+    <t>Daxitou landslide</t>
+  </si>
+  <si>
+    <t>11 communities in Yongxing County, Fuzhuang Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H198</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县富庄镇永兴村</t>
-  </si>
-  <si>
-    <t>水塘头滑坡</t>
+    <t>Yongxing Village, Fuzhuang Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuitangtou landslide</t>
   </si>
   <si>
     <t>H028</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大堰乡太红村</t>
-  </si>
-  <si>
-    <t>陈家嘴滑坡</t>
+    <t>Taihong Village, Dayan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Chenjiazui landslide</t>
   </si>
   <si>
     <t>H148</t>
   </si>
   <si>
-    <t>大坟岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡陈河村1社</t>
-  </si>
-  <si>
-    <t>北善岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡合江村4社</t>
-  </si>
-  <si>
-    <t>水塘头滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县大堰乡太红村6社</t>
+    <t>Dafenggang landslide</t>
+  </si>
+  <si>
+    <t>Chenhe Village, Community 1, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Beishangang landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Hejiang Village, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuitangtou Landslide 2</t>
+  </si>
+  <si>
+    <t>Group 6, Taihong Village, Dayan Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H146</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县西溪乡合江村</t>
-  </si>
-  <si>
-    <t>坎下户滑坡</t>
+    <t>Hejiang Village, Xixi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Kanxiahu landslide</t>
   </si>
   <si>
     <t>H145</t>
   </si>
   <si>
-    <t>红子儿滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡陈河村3社</t>
+    <t>Hongzier landslide</t>
+  </si>
+  <si>
+    <t>Chenhe Village, Group 3, Liangxi Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H075</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县双溪乡木兰村</t>
+    <t>Mulan Village, Shuangxi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
   </si>
   <si>
     <t>H150</t>
   </si>
   <si>
-    <t>寨子湾滑坡</t>
+    <t>Zhaiziwan landslide</t>
   </si>
   <si>
     <t>H027</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大堰乡同义村</t>
-  </si>
-  <si>
-    <t>四川省汉源县大堰乡同义村6社</t>
-  </si>
-  <si>
-    <t>骆象山滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡陈河村2社</t>
-  </si>
-  <si>
-    <t>寨子山滑坡</t>
+    <t>Tongyi Village, Dayan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Society 6, Tongyi Village, Dayan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Luoxiangshan landslide</t>
+  </si>
+  <si>
+    <t>Chenhe Village, Community 2, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhaizishan landslide</t>
   </si>
   <si>
     <t>H026</t>
   </si>
   <si>
-    <t>寨子上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大堰乡同义村1社</t>
-  </si>
-  <si>
-    <t>观音庙滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县清溪乡顺利村2社</t>
-  </si>
-  <si>
-    <t>一根桥滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县清溪乡顺利村1社</t>
-  </si>
-  <si>
-    <t>安装简易监测设施$地面位移监测</t>
+    <t>Zhaizishang Landslide</t>
+  </si>
+  <si>
+    <t>Tongyi Village 1 Community, Dayan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Guanyin Temple landslide</t>
+  </si>
+  <si>
+    <t>Shunli Village 2, Qingxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>A bridge landslide</t>
+  </si>
+  <si>
+    <t>Shunli Village, Qingxi Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Install simple monitoring facilities $ground displacement monitoring</t>
   </si>
   <si>
     <t>H089</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县清溪乡顺利村</t>
+    <t>Shunli Village, Qingxi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
   </si>
   <si>
     <t>H090</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县清溪乡顺河村</t>
+    <t>Shunhe Village, Qingxi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
   </si>
   <si>
     <t>H076</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县双溪乡申沟村</t>
-  </si>
-  <si>
-    <t>盘洞岩滑坡</t>
+    <t>Shengou Village, Shuangxi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Pandongyan landslide</t>
   </si>
   <si>
     <t>H018</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县梨园乡大地村</t>
-  </si>
-  <si>
-    <t>四川省汉源县梨园乡大地村2社</t>
-  </si>
-  <si>
-    <t>骆家山滑坡</t>
+    <t>Dadi Village, Liyuan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Community 2, Dadi Village, Liyuan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Luojiashan landslide</t>
   </si>
   <si>
     <t>H147</t>
   </si>
   <si>
-    <t>白崖上滑坡</t>
-  </si>
-  <si>
-    <t>单斜地层</t>
-  </si>
-  <si>
-    <t>塘房上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大堰乡海亭村2社</t>
-  </si>
-  <si>
-    <t>海亭村7组滑坡</t>
+    <t>Landslide on Baiya</t>
+  </si>
+  <si>
+    <t>Monoclinic strata</t>
+  </si>
+  <si>
+    <t>Landslide on Tangfang</t>
+  </si>
+  <si>
+    <t>Community 2, Haiting Village, Dayan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide in Group 7 of Haiting Village</t>
   </si>
   <si>
     <t>H024</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大堰乡海亭村</t>
-  </si>
-  <si>
-    <t>二坪上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县梨园乡三江村3社</t>
+    <t>Haiting Village, Dayan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Erpingshang landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Sanjiang Village, Liyuan Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H020</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县梨园乡三江村</t>
+    <t>Sanjiang Village, Liyuan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
   </si>
   <si>
     <t>H151</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县西溪乡松江村</t>
-  </si>
-  <si>
-    <t>水上沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大堰乡海亭村9社</t>
-  </si>
-  <si>
-    <t>红坎上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡平河村1社</t>
-  </si>
-  <si>
-    <t>水沟上滑坡</t>
+    <t>Songjiang Village, Xixi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuishanggou landslide</t>
+  </si>
+  <si>
+    <t>Group 9, Haiting Village, Dayan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Hongkan landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Pinghe Village, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on the ditch</t>
   </si>
   <si>
     <t>H025</t>
@@ -3012,337 +3012,337 @@
     <t>H144</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县西溪乡平河村</t>
-  </si>
-  <si>
-    <t>水莎湾滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县梨园乡三江村1社</t>
-  </si>
-  <si>
-    <t>大坪上滑坡</t>
+    <t>Pinghe Village, Xixi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Shuishawan landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Sanjiang Village, Liyuan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Daping landslide</t>
   </si>
   <si>
     <t>H128</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大堰乡新林村</t>
-  </si>
-  <si>
-    <t>草坝头滑坡</t>
+    <t>Xinlin Village, Dayan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Caobatou landslide</t>
   </si>
   <si>
     <t>H143</t>
   </si>
   <si>
-    <t>水大湾滑坡</t>
+    <t>Shuidawan landslide</t>
   </si>
   <si>
     <t>H019</t>
   </si>
   <si>
-    <t>大坪头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大堰乡新林村4社</t>
-  </si>
-  <si>
-    <t>白上坪滑坡</t>
+    <t>Dapingtou landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Xinlin Village, Dayan Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baishangping landslide</t>
   </si>
   <si>
     <t>H127</t>
   </si>
   <si>
-    <t>向上坪滑坡</t>
-  </si>
-  <si>
-    <t>苏家坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县梨园乡大树村6社</t>
+    <t>Shangping landslide</t>
+  </si>
+  <si>
+    <t>Sujiaping landslide</t>
+  </si>
+  <si>
+    <t>Group 6, Dashu Village, Liyuan Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H021</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县梨园乡大树村</t>
-  </si>
-  <si>
-    <t>寺基坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡民安村1社</t>
+    <t>Dashu Village, Liyuan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Sijiping landslide</t>
+  </si>
+  <si>
+    <t>Community 1, Min'an Village, Liangxi Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H139</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县西溪乡民安村</t>
-  </si>
-  <si>
-    <t>凉风顶滑坡</t>
+    <t>Min'an Village, Xixi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Liangfengding landslide</t>
   </si>
   <si>
     <t>H140</t>
   </si>
   <si>
-    <t>白庙坪滑坡</t>
+    <t>Baimiaoping landslide</t>
   </si>
   <si>
     <t>H138</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县西溪乡新立村</t>
-  </si>
-  <si>
-    <t>白扇坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡新民村1社</t>
-  </si>
-  <si>
-    <t>擦同岩滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县建黎乡同民村4、5社</t>
-  </si>
-  <si>
-    <t>定期目视检查$安装简易监测设施$地面位移监测</t>
-  </si>
-  <si>
-    <t>擦耳岩滑坡</t>
+    <t>Xinli Village, Xixi Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baifanping landslide</t>
+  </si>
+  <si>
+    <t>Xinmin Village, Community 1, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Caotongyan landslide</t>
+  </si>
+  <si>
+    <t>Communities 4 and 5, Tongmin Village, Jianli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Regular visual inspection $Installation of simple monitoring facilities $Ground displacement monitoring</t>
+  </si>
+  <si>
+    <t>Qiaoyan landslide</t>
   </si>
   <si>
     <t>H052</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县建黎乡同明村</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡民安村2社</t>
-  </si>
-  <si>
-    <t>朱家湾滑坡</t>
+    <t>Tongming Village, Jianli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Community 2, Min'an Village, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Zhujiawan landslide</t>
   </si>
   <si>
     <t>H054</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县建黎乡启明村</t>
-  </si>
-  <si>
-    <t>四川省汉源县建黎乡启明村4社</t>
-  </si>
-  <si>
-    <t>青岗林滑坡</t>
+    <t>Qiming Village, Jianli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Group 4, Qiming Village, Jianli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Qingganglin landslide</t>
   </si>
   <si>
     <t>H053</t>
   </si>
   <si>
-    <t>四川省汉源县建黎乡同明村3社</t>
-  </si>
-  <si>
-    <t>小坟院滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县两溪乡民安村3社</t>
-  </si>
-  <si>
-    <t>四川省汉源县市荣乡太平村1、9、10、11社</t>
-  </si>
-  <si>
-    <t>砂岩,页岩</t>
-  </si>
-  <si>
-    <t>土地尖滑坡</t>
+    <t>Group 3, Tongming Village, Jianli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xiaofenyuan landslide</t>
+  </si>
+  <si>
+    <t>Min'an Village, Community 3, Liangxi Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Communities 1, 9, 10, and 11, Taiping Village, Rongxiang Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Sandstone, shale</t>
+  </si>
+  <si>
+    <t>Land tip landslide</t>
   </si>
   <si>
     <t>H142</t>
   </si>
   <si>
-    <t>红岩子滑坡</t>
+    <t>Hongyanzi landslide</t>
   </si>
   <si>
     <t>H023</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县大堰乡林政村</t>
-  </si>
-  <si>
-    <t>白梨树上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县大堰乡村政村4社</t>
+    <t>Linzheng Village, Dayan Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on the White Pear Tree</t>
+  </si>
+  <si>
+    <t>Group 4, Zhengcun Village, Dayan Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H141</t>
   </si>
   <si>
-    <t>曾家沟泥石流</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡广安村3、4社</t>
-  </si>
-  <si>
-    <t>曹家沟泥石流</t>
+    <t>Zengjiagou debris flow</t>
+  </si>
+  <si>
+    <t>Communities 3 and 4, Guang'an Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Caojiagou debris flow</t>
   </si>
   <si>
     <t>N001</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县宜东乡广安村</t>
-  </si>
-  <si>
-    <t>小关山危岩体</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡大安村6社</t>
-  </si>
-  <si>
-    <t>白杨坡滑坡</t>
+    <t>Guang'an Village, Yidong Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Xiaoguan Mountain dangerous rock mass</t>
+  </si>
+  <si>
+    <t>Group 6, Da'an Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baiyangpo landslide</t>
   </si>
   <si>
     <t>H005</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县宜东镇群安村</t>
-  </si>
-  <si>
-    <t>白羊坡滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡群东村1社</t>
-  </si>
-  <si>
-    <t>宜东向斜北部</t>
-  </si>
-  <si>
-    <t>大安6组崩塌</t>
+    <t>Qun'an Village, Yidong Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Baiyangpo landslide</t>
+  </si>
+  <si>
+    <t>Group 1, Qundong Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Northern part of Yidong syncline</t>
+  </si>
+  <si>
+    <t>Da'an Group 6 collapse</t>
   </si>
   <si>
     <t>B001</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县宜东镇大安村</t>
-  </si>
-  <si>
-    <t>关地头滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡长荣村4社</t>
-  </si>
-  <si>
-    <t>达马坪滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡群龙村3社</t>
-  </si>
-  <si>
-    <t>打马坪滑坡</t>
+    <t>Da'an Village, Yidong Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Guanditou landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Changrong Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Damaping landslide</t>
+  </si>
+  <si>
+    <t>Group 3, Qunlong Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Damaping landslide</t>
   </si>
   <si>
     <t>H004</t>
   </si>
   <si>
-    <t>旺角营滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡长荣村2、3社</t>
-  </si>
-  <si>
-    <t>大河沟滑坡</t>
+    <t>Mong Kok Ying landslide</t>
+  </si>
+  <si>
+    <t>Groups 2 and 3, Changrong Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dahegou landslide</t>
   </si>
   <si>
     <t>H007</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县宜东镇银安村</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡银安村2社</t>
-  </si>
-  <si>
-    <t>大坡上滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县三交乡永河村7社</t>
-  </si>
-  <si>
-    <t>粘土</t>
-  </si>
-  <si>
-    <t>佘家湾滑坡</t>
+    <t>Yin'an Village, Yidong Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Yin'an Village Community 2, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on Dapo</t>
+  </si>
+  <si>
+    <t>Group 7, Yonghe Village, Sanjiao Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>Shejiawan landslide</t>
   </si>
   <si>
     <t>H006</t>
   </si>
   <si>
-    <t>桥楼子滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡天足村6、7、8、9社</t>
+    <t>Qiaolouzi landslide</t>
+  </si>
+  <si>
+    <t>Communities 6, 7, 8, and 9, Tianzu Village, Yidong Township, Hanyuan County, Sichuan Province</t>
   </si>
   <si>
     <t>H012</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县宜东镇天罡村</t>
-  </si>
-  <si>
-    <t>大沟头滑坡</t>
+    <t>Tiangang Village, Yidong Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dagoutou landslide</t>
   </si>
   <si>
     <t>H011</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县宜东镇众安村</t>
-  </si>
-  <si>
-    <t>堰坎上滑坡2</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡富乡村4、5、6社</t>
-  </si>
-  <si>
-    <t>永和村4组滑坡</t>
+    <t>Zhong'an Village, Yidong Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide on Weir 2</t>
+  </si>
+  <si>
+    <t>Communities 4, 5, and 6, Fuchun Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide in Group 4 of Yonghe Village</t>
   </si>
   <si>
     <t>H002</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县三交乡永和村</t>
-  </si>
-  <si>
-    <t>富乡村4、5、6组滑坡</t>
+    <t>Yonghe Village, Sanjiao Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslides in groups 4, 5, and 6 of Fuchuang Village</t>
   </si>
   <si>
     <t>H010</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县宜东镇富乡村</t>
-  </si>
-  <si>
-    <t>华兴嘴滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县宜东乡富乡村7、8社</t>
-  </si>
-  <si>
-    <t>富乡村7、8组滑坡</t>
+    <t>Fucun Village, Yidong Town, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Huaxingzui landslide</t>
+  </si>
+  <si>
+    <t>7th and 8th communities, Fuchun Village, Yidong Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslides in Groups 7 and 8 of Fuchuang Village</t>
   </si>
   <si>
     <t>H009</t>
   </si>
   <si>
-    <t>大坎滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县三交乡永河村4社</t>
-  </si>
-  <si>
-    <t>永和村七组滑坡</t>
+    <t>Dakan landslide</t>
+  </si>
+  <si>
+    <t>Group 4, Yonghe Village, Sanjiao Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide in Group 7 of Yonghe Village</t>
   </si>
   <si>
     <t>H003</t>
@@ -3351,94 +3351,94 @@
     <t>H008</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县三交乡高桥村</t>
-  </si>
-  <si>
-    <t>大湾头1号滑坡</t>
+    <t>Gaoqiao Village, Sanjiao Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dawantou No.1 Landslide</t>
   </si>
   <si>
     <t>H016</t>
   </si>
   <si>
-    <t>大湾头2号滑坡</t>
+    <t>Dawantou No.2 Landslide</t>
   </si>
   <si>
     <t>H017</t>
   </si>
   <si>
-    <t>草三岗滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县三交乡三交村3社</t>
-  </si>
-  <si>
-    <t>孔隙水$裂隙水$承压水</t>
-  </si>
-  <si>
-    <t>三交村3、4组滑坡</t>
+    <t>Caosangang landslide</t>
+  </si>
+  <si>
+    <t>Sanjiao Village, Sanjiao Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Pore water, fissure water, and confined water</t>
+  </si>
+  <si>
+    <t>Landslides in Groups 3 and 4 of Sanjiao Village</t>
   </si>
   <si>
     <t>H014</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县三交乡三交村</t>
-  </si>
-  <si>
-    <t>滑坡（村口）</t>
-  </si>
-  <si>
-    <t>四川省汉源县三交乡汉恩村5社</t>
-  </si>
-  <si>
-    <t>汉恩五组滑坡</t>
+    <t>Sanjiao Village, Sanjiao Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Landslide (village entrance)</t>
+  </si>
+  <si>
+    <t>Group 5, Han'en Village, Sanjiao Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Han En Group 5 Landslide</t>
   </si>
   <si>
     <t>H001</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县三交乡汉恩村</t>
-  </si>
-  <si>
-    <t>公留地危岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县永利乡古路村3社</t>
-  </si>
-  <si>
-    <t>马鞍山危岩</t>
-  </si>
-  <si>
-    <t>四川省汉源县永利乡杨树村5社</t>
-  </si>
-  <si>
-    <t>马鞍山危岩带</t>
+    <t>Han'en Village, Sanjiao Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Dangerous rocks on public land</t>
+  </si>
+  <si>
+    <t>Group 3, Gulu Village, Yongli Township, Hanyuan County, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Ma'anshan Dangerous Rock</t>
+  </si>
+  <si>
+    <t>Yangshu Village, Yongli Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Ma'anshan Dangerous Rock Belt</t>
   </si>
   <si>
     <t>B010</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县永利乡桂树村</t>
-  </si>
-  <si>
-    <t>庙儿沟滑坡</t>
-  </si>
-  <si>
-    <t>四川省汉源县永利乡竹坪村3社</t>
-  </si>
-  <si>
-    <t>粉质砂岩</t>
+    <t>Guishu Village, Yongli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Miaoergou landslide</t>
+  </si>
+  <si>
+    <t>Zhuping Village, Yongli Township, Hanyuan County, Sichuan Province, China</t>
+  </si>
+  <si>
+    <t>Siltstone</t>
   </si>
   <si>
     <t>H094</t>
   </si>
   <si>
-    <t>四川省雅安市汉源县永利乡竹坪村</t>
-  </si>
-  <si>
-    <t>磨盘乡崩塌</t>
-  </si>
-  <si>
-    <t>四川省汉源县永利乡杨树村1、2、3社</t>
+    <t>Zhuping Village, Yongli Township, Hanyuan County, Ya'an City, Sichuan Province</t>
+  </si>
+  <si>
+    <t>Collapse in Mopan Township</t>
+  </si>
+  <si>
+    <t>Yangshu Village communities 1, 2, and 3, Yongli Township, Hanyuan County, Sichuan Province</t>
   </si>
 </sst>
 </file>
